--- a/yield_prediction/results/graph_descriptors/WLrbf_4/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_4/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.333</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.551</v>
+        <v>21.344</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.049</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.401</v>
+        <v>20.214</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.748</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.372</v>
+        <v>19.309</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>31.19505756236916</v>
+        <v>3.480815217066976</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>31.19505756236916</v>
+        <v>36.85405037398701</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31.19505756236916</v>
+        <v>44.61716667534316</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>31.19505756236916</v>
+        <v>13.6489156002647</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>31.19505756236916</v>
+        <v>27.11126696381453</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>31.19505756236916</v>
+        <v>32.69190039556955</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>31.19505756236916</v>
+        <v>26.56320100049177</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>31.19505756236916</v>
+        <v>32.80780039488403</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>31.19505756236916</v>
+        <v>37.08524171502646</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>31.19505756236916</v>
+        <v>39.60503074227884</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>31.19505756236916</v>
+        <v>47.47691970044266</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>31.19505756236916</v>
+        <v>50.90341369030423</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>31.19505756236916</v>
+        <v>22.96576078208344</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>31.19505756236916</v>
+        <v>40.88811611841928</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>31.19505756236916</v>
+        <v>48.29740419225269</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>31.19505756236916</v>
+        <v>7.404194248779532</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>31.19505756236916</v>
+        <v>40.7823813019543</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>31.19505756236916</v>
+        <v>48.54708268522032</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>31.19505756236916</v>
+        <v>17.5673169599651</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>31.19505756236916</v>
+        <v>31.03422962330481</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>31.19505756236916</v>
+        <v>36.61597621211584</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>31.19505756236916</v>
+        <v>30.4858805091225</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>31.19505756236916</v>
+        <v>36.73435201699991</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>31.19505756236916</v>
+        <v>41.01267267416054</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>31.19505756236916</v>
+        <v>43.53347116695173</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>31.19505756236916</v>
+        <v>51.4084624934458</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>31.19505756236916</v>
+        <v>54.83550874018184</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>31.19505756236916</v>
+        <v>26.89159929110716</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>31.19505756236916</v>
+        <v>44.82016227616387</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>31.19505756236916</v>
+        <v>52.23029986805616</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>31.19505756236916</v>
+        <v>16.02004607249924</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>31.19505756236916</v>
+        <v>49.39905388662751</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>31.19505756236916</v>
+        <v>57.16461959019969</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>31.19505756236916</v>
+        <v>26.18465562920747</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>31.19505756236916</v>
+        <v>39.65246261694281</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>31.19505756236916</v>
+        <v>45.23498747571207</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>31.19505756236916</v>
+        <v>39.10490512462687</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>31.19505756236916</v>
+        <v>45.35420196414535</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>31.19505756236916</v>
+        <v>49.63318306154704</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>31.19505756236916</v>
+        <v>52.155577461636</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>31.19505756236916</v>
+        <v>60.03095013193084</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>31.19505756236916</v>
+        <v>63.45869176347574</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>31.19505756236916</v>
+        <v>35.5119843899719</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>31.19505756236916</v>
+        <v>53.44153351462379</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>31.19505756236916</v>
+        <v>60.85256580665376</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>31.19505756236916</v>
+        <v>7.103968892875997</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>31.19505756236916</v>
+        <v>40.47820319461815</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>31.19505756236916</v>
+        <v>48.2407344013366</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>31.19505756236916</v>
+        <v>17.27280148487935</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>31.19505756236916</v>
+        <v>30.73628912430368</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>31.19505756236916</v>
+        <v>36.31645137532885</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>31.19505756236916</v>
+        <v>30.18758845627454</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>31.19505756236916</v>
+        <v>36.43324126308735</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>31.19505756236916</v>
+        <v>40.71029984872646</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>31.19505756236916</v>
+        <v>43.2298265224953</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>31.19505756236916</v>
+        <v>51.10219954508582</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>31.19505756236916</v>
+        <v>54.52826521865668</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>31.19505756236916</v>
+        <v>26.58941147314479</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>31.19505756236916</v>
+        <v>44.51307348756418</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>31.19505756236916</v>
+        <v>51.92175052111284</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>31.19505756236916</v>
+        <v>11.02294098746248</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>31.19505756236916</v>
+        <v>44.4021271722219</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>31.19505756236916</v>
+        <v>52.16624328638252</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>31.19505756236916</v>
+        <v>21.18679575482398</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>31.19505756236916</v>
+        <v>34.65484463988176</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>31.19505756236916</v>
+        <v>40.23611987573375</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>31.19505756236916</v>
+        <v>34.10586085817218</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>31.19505756236916</v>
+        <v>40.35538572041665</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>31.19505756236916</v>
+        <v>44.63332348995576</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>31.19505756236916</v>
+        <v>47.15385983075785</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>31.19505756236916</v>
+        <v>55.02933516856959</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>31.19505756236916</v>
+        <v>58.45595301456288</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>31.19505756236916</v>
+        <v>30.51084308330874</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>31.19505756236916</v>
+        <v>48.44071266746553</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>31.19505756236916</v>
+        <v>55.85023903286449</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>31.19505756236916</v>
+        <v>19.6413123884669</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>31.19505756236916</v>
+        <v>53.02131933517208</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>31.19505756236916</v>
+        <v>60.78629974077037</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>31.19505756236916</v>
+        <v>29.80665418311756</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>31.19505756236916</v>
+        <v>43.27559739721747</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>31.19505756236916</v>
+        <v>48.85765088572114</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>31.19505756236916</v>
+        <v>42.72740529655269</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>31.19505756236916</v>
+        <v>48.97775549573944</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>31.19505756236916</v>
+        <v>53.25635369412092</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>31.19505756236916</v>
+        <v>55.77848586544602</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>31.19505756236916</v>
+        <v>63.65434255659457</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>31.19505756236916</v>
+        <v>67.08165576872844</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>31.19505756236916</v>
+        <v>39.13374790667481</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>31.19505756236916</v>
+        <v>57.06460363455588</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>31.19505756236916</v>
+        <v>64.47502466908421</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>31.19505756236916</v>
+        <v>5.692567791390758</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>31.19505756236916</v>
+        <v>39.06676249457624</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>31.19505756236916</v>
+        <v>46.82919807202396</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>31.19505756236916</v>
+        <v>15.86113484892363</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>31.19505756236916</v>
+        <v>29.32455145268753</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>31.19505756236916</v>
+        <v>34.90460647317312</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>31.19505756236916</v>
+        <v>28.77591754484459</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>31.19505756236916</v>
+        <v>35.02149782016161</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>31.19505756236916</v>
+        <v>39.29845759444825</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>31.19505756236916</v>
+        <v>41.81818064139568</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>31.19505756236916</v>
+        <v>49.69052123375607</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>31.19505756236916</v>
+        <v>53.11652193854766</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>31.19505756236916</v>
+        <v>25.17790536035503</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>31.19505756236916</v>
+        <v>43.10149862285519</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>31.19505756236916</v>
+        <v>50.51005587829175</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>31.19505756236916</v>
+        <v>9.613179833887926</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>31.19505756236916</v>
+        <v>42.99232647503769</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>31.19505756236916</v>
+        <v>50.75634695437125</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>31.19505756236916</v>
+        <v>19.77676918522005</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>31.19505756236916</v>
+        <v>33.24474707609662</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>31.19505756236916</v>
+        <v>38.82591507902035</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>31.19505756236916</v>
+        <v>32.69583006640519</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>31.19505756236916</v>
+        <v>38.94528243114533</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>31.19505756236916</v>
+        <v>43.22312138768328</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>31.19505756236916</v>
+        <v>45.74385402572253</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>31.19505756236916</v>
+        <v>53.61929694040455</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>31.19505756236916</v>
+        <v>57.04584981768292</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>31.19505756236916</v>
+        <v>29.10097700099507</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>31.19505756236916</v>
+        <v>47.03077786695624</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>31.19505756236916</v>
+        <v>54.44018445601435</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>31.19505756236916</v>
+        <v>18.2314718836532</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>31.19505756236916</v>
+        <v>51.6114392954785</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>31.19505756236916</v>
+        <v>59.37632407337711</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>31.19505756236916</v>
+        <v>28.39654827382552</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>31.19505756236916</v>
+        <v>41.86542050406084</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>31.19505756236916</v>
+        <v>47.44736676889377</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>31.19505756236916</v>
+        <v>41.31729515302359</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>31.19505756236916</v>
+        <v>47.56757286391783</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>31.19505756236916</v>
+        <v>51.84607225830078</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>31.19505756236916</v>
+        <v>54.36840070898054</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>31.19505756236916</v>
+        <v>62.24422497836181</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>31.19505756236916</v>
+        <v>65.67147323034706</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>31.19505756236916</v>
+        <v>37.72380245854222</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>31.19505756236916</v>
+        <v>55.6545894804722</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>31.19505756236916</v>
+        <v>63.06489074460413</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>31.19505756236916</v>
+        <v>-0.6698975156511722</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>31.19505756236916</v>
+        <v>32.70283440645542</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>31.19505756236916</v>
+        <v>40.46579478031325</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>31.19505756236916</v>
+        <v>9.497869095854668</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>31.19505756236916</v>
+        <v>22.95986384435506</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>31.19505756236916</v>
+        <v>28.54035236665291</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>31.19505756236916</v>
+        <v>22.41181712519383</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>31.19505756236916</v>
+        <v>28.65614098673896</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>31.19505756236916</v>
+        <v>32.93345666263465</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>31.19505756236916</v>
+        <v>35.4533796304394</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>31.19505756236916</v>
+        <v>43.32515260245853</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>31.19505756236916</v>
+        <v>46.75158418401989</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>31.19505756236916</v>
+        <v>18.81461831284869</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>31.19505756236916</v>
+        <v>36.73655407770892</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>31.19505756236916</v>
+        <v>44.14567505100493</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>31.19505756236916</v>
+        <v>3.252950847218841</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>31.19505756236916</v>
+        <v>36.63063460529159</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>31.19505756236916</v>
+        <v>44.39518002815001</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>31.19505756236916</v>
+        <v>13.41573980648459</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>31.19505756236916</v>
+        <v>26.88229578596693</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>31.19505756236916</v>
+        <v>32.46389743469436</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>31.19505756236916</v>
+        <v>26.33396592954367</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>31.19505756236916</v>
+        <v>32.58216184168683</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>31.19505756236916</v>
+        <v>36.86035682756849</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>31.19505756236916</v>
+        <v>39.38128926439154</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>31.19505756236916</v>
+        <v>47.25616456573906</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>31.19505756236916</v>
+        <v>50.68314839602183</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>31.19505756236916</v>
+        <v>22.73992608584413</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>31.19505756236916</v>
+        <v>40.66806940071345</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>31.19505756236916</v>
+        <v>48.07803987122671</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>31.19505756236916</v>
+        <v>11.86953403112025</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>31.19505756236916</v>
+        <v>45.24803856927159</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>31.19505756236916</v>
+        <v>53.01344830500253</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>31.19505756236916</v>
+        <v>22.03380985423738</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>31.19505756236916</v>
+        <v>35.50126017337826</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>31.19505756236916</v>
+        <v>41.08364008135666</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>31.19505756236916</v>
+        <v>34.95372195799794</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>31.19505756236916</v>
+        <v>41.20274321494085</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>31.19505756236916</v>
+        <v>45.48159863014283</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>31.19505756236916</v>
+        <v>48.00412691436546</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>31.19505756236916</v>
+        <v>55.87938356817315</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>31.19505756236916</v>
+        <v>59.3070627755508</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>31.19505756236916</v>
+        <v>31.36104252637645</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>31.19505756236916</v>
+        <v>49.29017199409682</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>31.19505756236916</v>
+        <v>56.70103714952259</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>31.19505756236916</v>
+        <v>7.735528211495676</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>31.19505756236916</v>
+        <v>41.10899281645484</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>31.19505756236916</v>
+        <v>48.87200241761607</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>31.19505756236916</v>
+        <v>17.90379224139386</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>31.19505756236916</v>
+        <v>31.36647170607594</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>31.19505756236916</v>
+        <v>36.94704110583146</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>31.19505756236916</v>
+        <v>30.81837209513085</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>31.19505756236916</v>
+        <v>37.06329681453738</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>31.19505756236916</v>
+        <v>41.34069283005297</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>31.19505756236916</v>
+        <v>43.86033778985032</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>31.19505756236916</v>
+        <v>51.73237451421861</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>31.19505756236916</v>
+        <v>55.15883856637041</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>31.19505756236916</v>
+        <v>27.22081720291933</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>31.19505756236916</v>
+        <v>45.14345677066311</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>31.19505756236916</v>
+        <v>52.55267187699533</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>31.19505756236916</v>
+        <v>11.66024520468753</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>31.19505756236916</v>
+        <v>45.03866167875574</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>31.19505756236916</v>
+        <v>52.80325630297253</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>31.19505756236916</v>
+        <v>21.82353164897009</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>31.19505756236916</v>
+        <v>35.29077237008281</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>31.19505756236916</v>
+        <v>40.87245486437385</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>31.19505756236916</v>
+        <v>34.74238971929472</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>31.19505756236916</v>
+        <v>40.99118651038967</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>31.19505756236916</v>
+        <v>45.26946180515236</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>31.19505756236916</v>
+        <v>47.79011623243846</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>31.19505756236916</v>
+        <v>55.66525529503454</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>31.19505756236916</v>
+        <v>59.09227158283139</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>31.19505756236916</v>
+        <v>31.1479937852047</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>31.19505756236916</v>
+        <v>49.0768409388742</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>31.19505756236916</v>
+        <v>20.27557567574891</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>31.19505756236916</v>
+        <v>53.65481288722904</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>31.19505756236916</v>
+        <v>61.42027183918461</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>31.19505756236916</v>
+        <v>30.44034891365473</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>31.19505756236916</v>
+        <v>43.90848393948889</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>31.19505756236916</v>
+        <v>49.49094471193817</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>31.19505756236916</v>
+        <v>43.36089290709836</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>31.19505756236916</v>
+        <v>49.61051501311786</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>31.19505756236916</v>
+        <v>53.88945075554491</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>31.19505756236916</v>
+        <v>56.41170106664927</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>31.19505756236916</v>
+        <v>64.28722147005752</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>31.19505756236916</v>
+        <v>67.7149331445568</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>31.19505756236916</v>
+        <v>39.76785743663814</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>31.19505756236916</v>
+        <v>57.69769071618671</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>31.19505756236916</v>
+        <v>65.10864999393382</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>31.19505756236916</v>
+        <v>10.87268780013565</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>31.19505756236916</v>
+        <v>44.24495877848497</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>31.19505756236916</v>
+        <v>52.0070147864474</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>31.19505756236916</v>
+        <v>21.04090780071172</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>31.19505756236916</v>
+        <v>34.50367760082386</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>31.19505756236916</v>
+        <v>40.08353601662228</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>31.19505756236916</v>
+        <v>33.95516559789795</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>31.19505756236916</v>
+        <v>40.20054937902253</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>31.19505756236916</v>
+        <v>44.47738842266179</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>31.19505756236916</v>
+        <v>46.99659831191016</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>31.19505756236916</v>
+        <v>54.86849412848861</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>31.19505756236916</v>
+        <v>58.29445202683283</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>31.19505756236916</v>
+        <v>30.35709444216209</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>31.19505756236916</v>
+        <v>48.27959241686452</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>31.19505756236916</v>
+        <v>55.68787934414448</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>31.19505756236916</v>
+        <v>14.79716954305391</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>31.19505756236916</v>
+        <v>48.17439214323431</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>31.19505756236916</v>
+        <v>55.93803293975739</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>31.19505756236916</v>
+        <v>24.96041227698802</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>31.19505756236916</v>
+        <v>38.42774308021708</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>31.19505756236916</v>
+        <v>44.00871438074117</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>31.19505756236916</v>
+        <v>37.87894816878443</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>31.19505756236916</v>
+        <v>44.12820379909479</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>31.19505756236916</v>
+        <v>48.40592194062552</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>31.19505756236916</v>
+        <v>50.92614132473639</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>31.19505756236916</v>
+        <v>58.80113927585492</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>31.19505756236916</v>
+        <v>62.22764932052817</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>31.19505756236916</v>
+        <v>34.28403585716117</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>31.19505756236916</v>
+        <v>52.21274107351374</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>31.19505756236916</v>
+        <v>59.62187726096059</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>31.19505756236916</v>
+        <v>23.41347955412894</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>31.19505756236916</v>
+        <v>56.7915228093232</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>31.19505756236916</v>
+        <v>64.55602785028694</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>31.19505756236916</v>
+        <v>33.57820904399378</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>31.19505756236916</v>
+        <v>47.04643407554616</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>31.19505756236916</v>
+        <v>52.62818358382302</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>31.19505756236916</v>
+        <v>46.49843079470693</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>31.19505756236916</v>
+        <v>52.74851167217801</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>31.19505756236916</v>
+        <v>57.02689020319158</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>31.19505756236916</v>
+        <v>59.5487053603986</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>31.19505756236916</v>
+        <v>67.42408462054792</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>31.19505756236916</v>
+        <v>70.85128997587813</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>31.19505756236916</v>
+        <v>42.90487880931531</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>31.19505756236916</v>
+        <v>60.83457006934933</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>31.19505756236916</v>
+        <v>68.24460087817104</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>31.19505756236916</v>
+        <v>0.8663379323692482</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>31.19505756236916</v>
+        <v>34.23783223872672</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>31.19505756236916</v>
+        <v>42.00003686259677</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>31.19505756236916</v>
+        <v>11.03394886363938</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>31.19505756236916</v>
+        <v>24.49577631247681</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>31.19505756236916</v>
+        <v>30.07567660031808</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>31.19505756236916</v>
+        <v>23.94744890001712</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>31.19505756236916</v>
+        <v>30.19193428495467</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>31.19505756236916</v>
+        <v>34.46878225702156</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>31.19505756236916</v>
+        <v>36.98847926282465</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>31.19505756236916</v>
+        <v>44.8599388319366</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>31.19505756236916</v>
+        <v>48.28591586678786</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>31.19505756236916</v>
+        <v>20.34983325356498</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>31.19505756236916</v>
+        <v>38.27147033630766</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>31.19505756236916</v>
+        <v>45.67979367507522</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>31.19505756236916</v>
+        <v>4.788828477654221</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>31.19505756236916</v>
+        <v>38.16527449554806</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>31.19505756236916</v>
+        <v>45.92906404893475</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>31.19505756236916</v>
+        <v>14.95146207988287</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>31.19505756236916</v>
+        <v>28.41785064685374</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>31.19505756236916</v>
+        <v>33.99886397382377</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>31.19505756236916</v>
+        <v>27.86924005387201</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>31.19505756236916</v>
+        <v>34.1175973958523</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>31.19505756236916</v>
+        <v>38.39532460952719</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>31.19505756236916</v>
+        <v>40.91603102947332</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>31.19505756236916</v>
+        <v>48.79059278397929</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>31.19505756236916</v>
+        <v>52.21712201885796</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>31.19505756236916</v>
+        <v>24.2747832616424</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>31.19505756236916</v>
+        <v>42.20262772789638</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>31.19505756236916</v>
+        <v>49.61180045414326</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>31.19505756236916</v>
+        <v>13.40641089744568</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>31.19505756236916</v>
+        <v>46.78367764074827</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>31.19505756236916</v>
+        <v>54.54833141842008</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>31.19505756236916</v>
+        <v>23.57053137197218</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>31.19505756236916</v>
+        <v>37.03781422578143</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>31.19505756236916</v>
+        <v>42.61960574167588</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>31.19505756236916</v>
+        <v>36.48999526248909</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>31.19505756236916</v>
+        <v>42.73917790214708</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>31.19505756236916</v>
+        <v>47.01756548860195</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>31.19505756236916</v>
+        <v>49.53986770198324</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>31.19505756236916</v>
+        <v>57.41481077809968</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>31.19505756236916</v>
+        <v>60.84203532095412</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>31.19505756236916</v>
+        <v>32.89689880387621</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>31.19505756236916</v>
+        <v>50.82572936003763</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>31.19505756236916</v>
+        <v>58.23579670157531</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>31.19505756236916</v>
+        <v>-0.1311144105999063</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>31.19505756236916</v>
+        <v>33.24223174229749</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>31.19505756236916</v>
+        <v>41.00524486013083</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>31.19505756236916</v>
+        <v>10.03686929477786</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>31.19505756236916</v>
+        <v>23.49936063803719</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>31.19505756236916</v>
+        <v>29.07993049767529</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>31.19505756236916</v>
+        <v>22.95109178909243</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>31.19505756236916</v>
+        <v>29.19582510394869</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>31.19505756236916</v>
+        <v>33.47322154740269</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>31.19505756236916</v>
+        <v>35.99314810909382</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>31.19505756236916</v>
+        <v>43.86517195313345</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>31.19505756236916</v>
+        <v>47.29162999103599</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>31.19505756236916</v>
+        <v>19.35384247911216</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>31.19505756236916</v>
+        <v>37.27634044696313</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>31.19505756236916</v>
+        <v>44.68553952289292</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>31.19505756236916</v>
+        <v>3.791726080662926</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>31.19505756236916</v>
+        <v>37.17002409633554</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>31.19505756236916</v>
+        <v>44.93462224666396</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>31.19505756236916</v>
+        <v>13.95473209814239</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>31.19505756236916</v>
+        <v>27.42178469367812</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>31.19505756236916</v>
+        <v>33.0034676573263</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>31.19505756236916</v>
+        <v>26.87323275882457</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>31.19505756236916</v>
+        <v>33.12183814121559</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>31.19505756236916</v>
+        <v>37.40011387264863</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>31.19505756236916</v>
+        <v>39.92104996229264</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>31.19505756236916</v>
+        <v>47.79617615189377</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>31.19505756236916</v>
+        <v>51.22318642956182</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>31.19505756236916</v>
+        <v>23.27914249088624</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>31.19505756236916</v>
+        <v>41.20784804382041</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>31.19505756236916</v>
+        <v>48.61789659194997</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>31.19505756236916</v>
+        <v>12.40794315336532</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>31.19505756236916</v>
+        <v>45.78706192975633</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>31.19505756236916</v>
+        <v>53.55252441758083</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>31.19505756236916</v>
+        <v>22.5724360388879</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>31.19505756236916</v>
+        <v>36.04038296346928</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>31.19505756236916</v>
+        <v>41.62284421165523</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>31.19505756236916</v>
+        <v>35.49262266185954</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>31.19505756236916</v>
+        <v>41.74205338163441</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>31.19505756236916</v>
+        <v>46.0209895657039</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>31.19505756236916</v>
+        <v>48.54352151076947</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>31.19505756236916</v>
+        <v>56.4190290501904</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>31.19505756236916</v>
+        <v>59.84673472247849</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>31.19505756236916</v>
+        <v>31.8998928311004</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>31.19505756236916</v>
+        <v>49.82958453362156</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>31.19505756236916</v>
+        <v>57.24052779046795</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>31.19505756236916</v>
+        <v>15.30755343473962</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>31.19505756236916</v>
+        <v>48.68117567191373</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>31.19505756236916</v>
+        <v>56.44351523713866</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>31.19505756236916</v>
+        <v>25.47690735106383</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>31.19505756236916</v>
+        <v>38.9403610011656</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>31.19505756236916</v>
+        <v>44.52040756334216</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>31.19505756236916</v>
+        <v>38.39180011242914</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>31.19505756236916</v>
+        <v>44.63759812800291</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>31.19505756236916</v>
+        <v>48.91457454785601</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>31.19505756236916</v>
+        <v>51.43393668508875</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>31.19505756236916</v>
+        <v>59.30611193406165</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>31.19505756236916</v>
+        <v>62.73213834006597</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>31.19505756236916</v>
+        <v>34.79376461707173</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>31.19505756236916</v>
+        <v>52.71718429341027</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>31.19505756236916</v>
+        <v>60.12574088492218</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>31.19505756236916</v>
+        <v>19.22655937794073</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>31.19505756236916</v>
+        <v>52.60513333921497</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>31.19505756236916</v>
+        <v>60.36905773865706</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>31.19505756236916</v>
+        <v>29.39093554365789</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>31.19505756236916</v>
+        <v>42.85895031074213</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>31.19505756236916</v>
+        <v>48.44010979235398</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>31.19505756236916</v>
+        <v>42.31010632340534</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>31.19505756236916</v>
+        <v>48.55977628898339</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>31.19505756236916</v>
+        <v>52.83763183736758</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>31.19505756236916</v>
+        <v>55.35800362448188</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>31.19505756236916</v>
+        <v>63.2332810983909</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>31.19505756236916</v>
+        <v>66.65985966074496</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>31.19505756236916</v>
+        <v>38.71522993278782</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>31.19505756236916</v>
+        <v>56.6448570310055</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>31.19505756236916</v>
+        <v>64.05426287139497</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>31.19505756236916</v>
+        <v>27.84345940669814</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>31.19505756236916</v>
+        <v>61.22285405021503</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>31.19505756236916</v>
+        <v>68.98764272091981</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>31.19505756236916</v>
+        <v>38.00932249531687</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>31.19505756236916</v>
+        <v>51.47823151669516</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>31.19505756236916</v>
+        <v>57.0601692353288</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>31.19505756236916</v>
+        <v>50.93017918590525</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>31.19505756236916</v>
+        <v>57.18067442216093</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>31.19505756236916</v>
+        <v>61.45919038669857</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>31.19505756236916</v>
+        <v>63.98115805104149</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>31.19505756236916</v>
+        <v>71.85681684563386</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>31.19505756236916</v>
+        <v>75.28409073930769</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>31.19505756236916</v>
+        <v>47.33666320662454</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>31.19505756236916</v>
+        <v>65.26727637619743</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>31.19505756236916</v>
+        <v>72.67757687034944</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>31.19505756236916</v>
+        <v>-3.92817060322281</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>31.19505756236916</v>
+        <v>29.44304399721696</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>31.19505756236916</v>
+        <v>37.20524708314738</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>31.19505756236916</v>
+        <v>6.238734464374062</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>31.19505756236916</v>
+        <v>19.70048853213703</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>31.19505756236916</v>
+        <v>25.28039906867812</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>31.19505756236916</v>
+        <v>19.15196408975945</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>31.19505756236916</v>
+        <v>25.39643399159141</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>31.19505756236916</v>
+        <v>29.67329753218181</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>31.19505756236916</v>
+        <v>32.19293722116507</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>31.19505756236916</v>
+        <v>40.06444320090569</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>31.19505756236916</v>
+        <v>43.49036712532089</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>31.19505756236916</v>
+        <v>15.55422475777951</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>31.19505756236916</v>
+        <v>33.47588813852363</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>31.19505756236916</v>
+        <v>40.884172137565</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>31.19505756236916</v>
+        <v>-0.007157037048699522</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>31.19505756236916</v>
+        <v>33.36900919386383</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>31.19505756236916</v>
+        <v>41.13279721497602</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>31.19505756236916</v>
+        <v>10.15477073326602</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>31.19505756236916</v>
+        <v>23.62108583646673</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>31.19505756236916</v>
+        <v>29.20210942822771</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>31.19505756236916</v>
+        <v>23.07227820727908</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>31.19505756236916</v>
+        <v>29.32061999481189</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>31.19505756236916</v>
+        <v>33.5983627928762</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>31.19505756236916</v>
+        <v>36.11901195158148</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>31.19505756236916</v>
+        <v>43.99362007826952</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>31.19505756236916</v>
+        <v>47.42009618911473</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>31.19505756236916</v>
+        <v>19.47769780682702</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>31.19505756236916</v>
+        <v>37.40556844152925</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>31.19505756236916</v>
+        <v>44.8147018787013</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>31.19505756236916</v>
+        <v>8.610679042677504</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>31.19505756236916</v>
+        <v>41.98766601596063</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>31.19505756236916</v>
+        <v>49.75231826198902</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>31.19505756236916</v>
+        <v>18.77409372153298</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>31.19505756236916</v>
+        <v>32.24130312130197</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>31.19505756236916</v>
+        <v>37.82310490567298</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>31.19505756236916</v>
+        <v>31.69328709060542</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>31.19505756236916</v>
+        <v>37.94245418252856</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>31.19505756236916</v>
+        <v>42.22085735722126</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>31.19505756236916</v>
+        <v>44.74310223985211</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>31.19505756236916</v>
+        <v>52.6180917012845</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>31.19505756236916</v>
+        <v>56.04526314107935</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>31.19505756236916</v>
+        <v>28.10006701476973</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>31.19505756236916</v>
+        <v>46.02892374974388</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>31.19505756236916</v>
+        <v>53.43895179685697</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>31.19505756236916</v>
+        <v>5.566207553642954</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>31.19505756236916</v>
+        <v>38.9392303807779</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>31.19505756236916</v>
+        <v>46.70139179765218</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>31.19505756236916</v>
+        <v>15.73399813912593</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>31.19505756236916</v>
+        <v>29.19689443526934</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>31.19505756236916</v>
+        <v>34.77675090182609</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>31.19505756236916</v>
+        <v>28.64832133583403</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>31.19505756236916</v>
+        <v>34.89362714793234</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>31.19505756236916</v>
+        <v>39.17043456632851</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>31.19505756236916</v>
+        <v>41.68992380412956</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>31.19505756236916</v>
+        <v>49.56203314230302</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>31.19505756236916</v>
+        <v>52.98794588224612</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>31.19505756236916</v>
+        <v>25.05016305036943</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>31.19505756236916</v>
+        <v>42.97304999943131</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>31.19505756236916</v>
+        <v>50.38133211882612</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>31.19505756236916</v>
+        <v>9.489678776755142</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>31.19505756236916</v>
+        <v>42.86765341171647</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>31.19505756236916</v>
+        <v>50.63139969057127</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>31.19505756236916</v>
+        <v>19.65249200339147</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>31.19505756236916</v>
+        <v>33.11994945167922</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>31.19505756236916</v>
+        <v>38.70091887644699</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>31.19505756236916</v>
+        <v>32.57109335457793</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>31.19505756236916</v>
+        <v>38.82027113847235</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>31.19505756236916</v>
+        <v>43.09795771970474</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>31.19505756236916</v>
+        <v>45.6184564653993</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>31.19505756236916</v>
+        <v>53.49366803516207</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>31.19505756236916</v>
+        <v>56.92013294095673</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>31.19505756236916</v>
+        <v>28.97609402360334</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>31.19505756236916</v>
+        <v>46.90518837595917</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>31.19505756236916</v>
+        <v>54.31431984028896</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>31.19505756236916</v>
+        <v>18.10752431751419</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>31.19505756236916</v>
+        <v>51.48631970216266</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>31.19505756236916</v>
+        <v>59.25093025482764</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>31.19505756236916</v>
+        <v>28.27182446297982</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>31.19505756236916</v>
+        <v>41.74017622649936</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>31.19505756236916</v>
+        <v>47.32192388839988</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>31.19505756236916</v>
+        <v>41.1921117659023</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>31.19505756236916</v>
+        <v>47.44211487416388</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>31.19505756236916</v>
+        <v>51.72046187087975</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>31.19505756236916</v>
+        <v>54.24255633529665</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>31.19505756236916</v>
+        <v>62.1181492460934</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>31.19505756236916</v>
+        <v>65.54530950944516</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>31.19505756236916</v>
+        <v>37.59847273462461</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>31.19505756236916</v>
+        <v>55.5285532161362</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>31.19505756236916</v>
+        <v>62.93857932613665</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>31.19505756236916</v>
+        <v>-4.077221943499893</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>31.19505756236916</v>
+        <v>29.29503968183715</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>31.19505756236916</v>
+        <v>37.05723347122083</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>31.19505756236916</v>
+        <v>6.090180719699475</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>31.19505756236916</v>
+        <v>19.55233142911439</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>31.19505756236916</v>
+        <v>25.13218162557214</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>31.19505756236916</v>
+        <v>19.00387246768551</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>31.19505756236916</v>
+        <v>25.24851238611691</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>31.19505756236916</v>
+        <v>29.52530448717792</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>31.19505756236916</v>
+        <v>32.04511770201466</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>31.19505756236916</v>
+        <v>39.91689870409996</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>31.19505756236916</v>
+        <v>43.34278437229435</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>31.19505756236916</v>
+        <v>15.40614536789192</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>31.19505756236916</v>
+        <v>33.32829378511568</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>31.19505756236916</v>
+        <v>40.73655856891222</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>31.19505756236916</v>
+        <v>-0.1581557824636945</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>31.19505756236916</v>
+        <v>33.21905760923815</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>31.19505756236916</v>
+        <v>40.98283630628194</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>31.19505756236916</v>
+        <v>10.00426929132485</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>31.19505756236916</v>
+        <v>23.47098113078508</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>31.19505756236916</v>
+        <v>29.05194433551119</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>31.19505756236916</v>
+        <v>22.92223897753186</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>31.19505756236916</v>
+        <v>29.17075085221634</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>31.19505756236916</v>
+        <v>33.44842216337216</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>31.19505756236916</v>
+        <v>35.96924493174529</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>31.19505756236916</v>
+        <v>43.84412815897977</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>31.19505756236916</v>
+        <v>47.27056601121708</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>31.19505756236916</v>
+        <v>19.3276709424986</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>31.19505756236916</v>
+        <v>37.25602674697294</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>31.19505756236916</v>
+        <v>44.66514090608237</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>31.19505756236916</v>
+        <v>8.461616386367524</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>31.19505756236916</v>
+        <v>41.83965058614163</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>31.19505756236916</v>
+        <v>49.60429351973849</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>31.19505756236916</v>
+        <v>18.6255284960445</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>31.19505756236916</v>
+        <v>32.09313469837107</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>31.19505756236916</v>
+        <v>37.67487610301319</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>31.19505756236916</v>
+        <v>31.54518422812114</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>31.19505756236916</v>
+        <v>37.79452146688371</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>31.19505756236916</v>
+        <v>42.07285316051824</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>31.19505756236916</v>
+        <v>44.59527163951489</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>31.19505756236916</v>
+        <v>52.4705362247395</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>31.19505756236916</v>
+        <v>55.89766940959183</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>31.19505756236916</v>
+        <v>27.9519764363138</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>31.19505756236916</v>
+        <v>45.88131840608688</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>31.19505756236916</v>
+        <v>53.29132718096756</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>31.19505756236916</v>
+        <v>-8.773451303104224</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>31.19505756236916</v>
+        <v>24.59746000081444</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>31.19505756236916</v>
+        <v>32.35934482484211</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>31.19505756236916</v>
+        <v>1.393195993721207</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>31.19505756236916</v>
+        <v>14.85464069054947</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>31.19505756236916</v>
+        <v>20.43424347856129</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>31.19505756236916</v>
+        <v>14.30613124250161</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>31.19505756236916</v>
+        <v>20.55032687550707</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>31.19505756236916</v>
+        <v>24.82691858792774</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>31.19505756236916</v>
+        <v>27.34677148455856</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>31.19505756236916</v>
+        <v>35.21824789909525</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>31.19505756236916</v>
+        <v>38.64402973403335</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>31.19505756236916</v>
+        <v>10.70864905271961</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>31.19505756236916</v>
+        <v>28.62992793099355</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>31.19505756236916</v>
+        <v>36.03787578773122</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>31.19505756236916</v>
+        <v>-4.853129937445345</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>31.19505756236916</v>
+        <v>28.52273298009439</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>31.19505756236916</v>
+        <v>36.28620266452972</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>31.19505756236916</v>
+        <v>5.308540028969247</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>31.19505756236916</v>
+        <v>18.7745457061649</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>31.19505756236916</v>
+        <v>24.35526147320698</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>31.19505756236916</v>
+        <v>18.22575312112716</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>31.19505756236916</v>
+        <v>24.47382058178815</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>31.19505756236916</v>
+        <v>28.751291481967</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>31.19505756236916</v>
+        <v>31.27215386260573</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>31.19505756236916</v>
+        <v>39.14673240341838</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>31.19505756236916</v>
+        <v>42.57306641050039</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>31.19505756236916</v>
+        <v>14.63142982533455</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>31.19505756236916</v>
+        <v>32.5589158733857</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>31.19505756236916</v>
+        <v>39.96771309909005</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>31.19505756236916</v>
+        <v>3.766602085476308</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>31.19505756236916</v>
+        <v>37.14328579718656</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>31.19505756236916</v>
+        <v>44.90761970168879</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>31.19505756236916</v>
+        <v>13.92975902764047</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>31.19505756236916</v>
+        <v>27.39665905278756</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>31.19505756236916</v>
+        <v>32.97815299871641</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>31.19505756236916</v>
+        <v>26.84865812577257</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>31.19505756236916</v>
+        <v>33.09755093656386</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>31.19505756236916</v>
+        <v>37.37568219953906</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>31.19505756236916</v>
+        <v>39.89814019068186</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>31.19505756236916</v>
+        <v>47.7731000821731</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>31.19505756236916</v>
+        <v>51.2001294056893</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>31.19505756236916</v>
+        <v>23.25569499692816</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>31.19505756236916</v>
+        <v>41.18416719016048</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>31.19505756236916</v>
+        <v>48.59385900406326</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>31.19505756236916</v>
+        <v>1.609813341964042</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>31.19505756236916</v>
+        <v>34.98311199581488</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>31.19505756236916</v>
+        <v>42.7461961112439</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>31.19505756236916</v>
+        <v>11.77775528758698</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>31.19505756236916</v>
+        <v>25.2401013364138</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>31.19505756236916</v>
+        <v>30.82070497461055</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>31.19505756236916</v>
+        <v>24.69208809315333</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>31.19505756236916</v>
+        <v>30.93666193604807</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>31.19505756236916</v>
+        <v>35.21407782468069</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>31.19505756236916</v>
+        <v>37.73393109196186</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>31.19505756236916</v>
+        <v>45.60583493300138</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>31.19505756236916</v>
+        <v>49.03228113644607</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>31.19505756236916</v>
+        <v>21.09469035535304</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>31.19505756236916</v>
+        <v>39.01707082611645</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>31.19505756236916</v>
+        <v>46.42631397496442</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>31.19505756236916</v>
+        <v>5.531074726654339</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>31.19505756236916</v>
+        <v>38.9093252610792</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>31.19505756236916</v>
+        <v>46.67399443950958</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>31.19505756236916</v>
+        <v>15.69403886655394</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>31.19505756236916</v>
+        <v>29.1609461918097</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>31.19505756236916</v>
+        <v>34.74266296633542</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>31.19505756236916</v>
+        <v>28.61264975863608</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>31.19505756236916</v>
+        <v>34.86109569191754</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>31.19505756236916</v>
+        <v>39.13939089840792</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>31.19505756236916</v>
+        <v>41.66025369605578</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>31.19505756236916</v>
+        <v>49.5352598957044</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>31.19505756236916</v>
+        <v>52.96225834908435</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>31.19505756236916</v>
+        <v>25.01841111821867</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>31.19505756236916</v>
+        <v>42.9469992052955</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>31.19505756236916</v>
+        <v>50.35709185585816</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>31.19505756236916</v>
+        <v>14.14790137829621</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>31.19505756236916</v>
+        <v>47.52697270033505</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>31.19505756236916</v>
+        <v>55.29250619180883</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>31.19505756236916</v>
+        <v>24.3123524204523</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>31.19505756236916</v>
+        <v>37.78015409390767</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>31.19505756236916</v>
+        <v>43.36264913217556</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>31.19505756236916</v>
+        <v>37.2326493115693</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>31.19505756236916</v>
+        <v>43.4819205971576</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>31.19505756236916</v>
+        <v>47.76087623858021</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>31.19505756236916</v>
+        <v>50.28333491909453</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>31.19505756236916</v>
+        <v>58.15872247455653</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>31.19505756236916</v>
+        <v>61.58641631022218</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>31.19505756236916</v>
+        <v>33.63977110508236</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>31.19505756236916</v>
+        <v>51.5693453569161</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>31.19505756236916</v>
+        <v>58.98033269999794</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>31.19505756236916</v>
+        <v>4.859331787846401</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>31.19505756236916</v>
+        <v>38.23202039030005</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>31.19505756236916</v>
+        <v>45.99432195818113</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>31.19505756236916</v>
+        <v>15.02726488219562</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>31.19505756236916</v>
+        <v>28.48992828653437</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>31.19505756236916</v>
+        <v>34.06991053577102</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>31.19505756236916</v>
+        <v>27.94134034385164</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>31.19505756236916</v>
+        <v>34.18646114682636</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>31.19505756236916</v>
+        <v>38.46337795646335</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>31.19505756236916</v>
+        <v>40.9828564290124</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>31.19505756236916</v>
+        <v>48.85484042202475</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>31.19505756236916</v>
+        <v>52.28078606217414</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>31.19505756236916</v>
+        <v>24.3432734843208</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>31.19505756236916</v>
+        <v>42.2659909777897</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>31.19505756236916</v>
+        <v>49.6743997008455</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>31.19505756236916</v>
+        <v>8.778331374756277</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>31.19505756236916</v>
+        <v>42.15597169631113</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>31.19505756236916</v>
+        <v>49.91985816630952</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>31.19505756236916</v>
+        <v>18.94128689709524</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>31.19505756236916</v>
+        <v>32.40851139160876</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>31.19505756236916</v>
+        <v>37.9896066448695</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>31.19505756236916</v>
+        <v>31.85964029336688</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>31.19505756236916</v>
+        <v>38.1086330201488</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>31.19505756236916</v>
+        <v>42.38642903651751</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>31.19505756236916</v>
+        <v>44.90691709500143</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>31.19505756236916</v>
+        <v>52.78200329065206</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>31.19505756236916</v>
+        <v>56.20850110054769</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>31.19505756236916</v>
+        <v>28.26473251351334</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>31.19505756236916</v>
+        <v>46.19365734393924</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>31.19505756236916</v>
+        <v>53.60291544595091</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>31.19505756236916</v>
+        <v>17.39649673199781</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>31.19505756236916</v>
+        <v>50.7749578196771</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>31.19505756236916</v>
+        <v>58.5397085497091</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>31.19505756236916</v>
+        <v>27.5609392335671</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>31.19505756236916</v>
+        <v>41.02905805350966</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>31.19505756236916</v>
+        <v>46.61093153060338</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>31.19505756236916</v>
+        <v>40.48097858878717</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>31.19505756236916</v>
+        <v>46.7307966465809</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>31.19505756236916</v>
+        <v>51.00925306659272</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>31.19505756236916</v>
+        <v>53.53133686060815</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>31.19505756236916</v>
+        <v>61.40680441134285</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>31.19505756236916</v>
+        <v>64.83399757611258</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>31.19505756236916</v>
+        <v>36.88743113498143</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>31.19505756236916</v>
+        <v>54.81734209948391</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>31.19505756236916</v>
+        <v>62.22749483879127</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>31.19505756236916</v>
+        <v>10.76592688508597</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>31.19505756236916</v>
+        <v>44.14047599546134</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>31.19505756236916</v>
+        <v>51.90368154991407</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>31.19505756236916</v>
+        <v>20.93500779043953</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>31.19505756236916</v>
+        <v>34.39830397262622</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>31.19505756236916</v>
+        <v>39.97902159306344</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>31.19505756236916</v>
+        <v>33.85007908629362</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>31.19505756236916</v>
+        <v>40.09541771646641</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>31.19505756236916</v>
+        <v>44.3729304561339</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>31.19505756236916</v>
+        <v>46.89257743394697</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>31.19505756236916</v>
+        <v>54.76488741282381</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>31.19505756236916</v>
+        <v>58.19141362204326</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>31.19505756236916</v>
+        <v>30.25239116426465</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>31.19505756236916</v>
+        <v>48.17581055101928</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>31.19505756236916</v>
+        <v>55.58522214081668</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>31.19505756236916</v>
+        <v>14.68768931123307</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>31.19505756236916</v>
+        <v>48.0671903716873</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>31.19505756236916</v>
+        <v>55.83198097485402</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>31.19505756236916</v>
+        <v>24.85179232618455</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>31.19505756236916</v>
+        <v>38.31964985146422</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>31.19505756236916</v>
+        <v>43.90148058114428</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>31.19505756236916</v>
+        <v>37.77114184571761</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>31.19505756236916</v>
+        <v>44.02035262315397</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>31.19505756236916</v>
+        <v>48.29874465363278</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>31.19505756236916</v>
+        <v>50.81940120852201</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>31.19505756236916</v>
+        <v>58.69481359324007</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>31.19505756236916</v>
+        <v>62.12189204366942</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>31.19505756236916</v>
+        <v>34.17661306230812</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>31.19505756236916</v>
+        <v>52.10624017158048</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>31.19505756236916</v>
+        <v>59.51650121758158</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>31.19505756236916</v>
+        <v>23.30349682930412</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>31.19505756236916</v>
+        <v>56.6838186390053</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>31.19505756236916</v>
+        <v>64.44947358200389</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>31.19505756236916</v>
+        <v>33.46908672436589</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>31.19505756236916</v>
+        <v>46.93783856783173</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>31.19505756236916</v>
+        <v>52.52044758859498</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>31.19505756236916</v>
+        <v>46.39012220858118</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>31.19505756236916</v>
+        <v>52.64015831384623</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>31.19505756236916</v>
+        <v>56.91921080391481</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>31.19505756236916</v>
+        <v>59.44146331171672</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>31.19505756236916</v>
+        <v>67.31725704454325</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>31.19505756236916</v>
+        <v>70.74503088689929</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>31.19505756236916</v>
+        <v>42.7969539392349</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>31.19505756236916</v>
+        <v>60.727567188834</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>31.19505756236916</v>
+        <v>68.13872295360878</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>31.19505756236916</v>
+        <v>6.020841082078533</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>31.19505756236916</v>
+        <v>39.3935543123105</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>31.19505756236916</v>
+        <v>47.15657673230604</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>31.19505756236916</v>
+        <v>16.18908949816219</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>31.19505756236916</v>
+        <v>29.65126278940718</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>31.19505756236916</v>
+        <v>35.23184851506167</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>31.19505756236916</v>
+        <v>29.10320747112522</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>31.19505756236916</v>
+        <v>35.34774864740476</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>31.19505756236916</v>
+        <v>39.62516063420983</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>31.19505756236916</v>
+        <v>42.14484353359606</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>31.19505756236916</v>
+        <v>50.01663911213009</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>31.19505756236916</v>
+        <v>53.44311440900381</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>31.19505756236916</v>
+        <v>25.50588256612482</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>31.19505756236916</v>
+        <v>43.42796439295401</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>31.19505756236916</v>
+        <v>50.83719759583087</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>31.19505756236916</v>
+        <v>9.943849639981096</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>31.19505756236916</v>
+        <v>43.32151463909466</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>31.19505756236916</v>
+        <v>51.0861220956821</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>31.19505756236916</v>
+        <v>20.10712048092356</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>31.19505756236916</v>
+        <v>33.57385494423934</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>31.19505756236916</v>
+        <v>39.1555537845318</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>31.19505756236916</v>
+        <v>33.02551649229511</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>31.19505756236916</v>
+        <v>39.2739296697313</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>31.19505756236916</v>
+        <v>43.5522209558159</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>31.19505756236916</v>
+        <v>46.07291332185051</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>31.19505756236916</v>
+        <v>53.94781118843574</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>31.19505756236916</v>
+        <v>57.37483872506951</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>31.19505756236916</v>
+        <v>29.4313505312729</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>31.19505756236916</v>
+        <v>47.35963984020455</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>31.19505756236916</v>
+        <v>54.76972252952046</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>31.19505756236916</v>
+        <v>18.55919809321122</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>31.19505756236916</v>
+        <v>51.93768383312252</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>31.19505756236916</v>
+        <v>59.70315560354507</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>31.19505756236916</v>
+        <v>28.72395573865461</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>31.19505756236916</v>
+        <v>42.19158450601097</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>31.19505756236916</v>
+        <v>47.7740616092116</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>31.19505756236916</v>
+        <v>41.64403766607452</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>31.19505756236916</v>
+        <v>47.89327615678306</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>31.19505756236916</v>
+        <v>52.17222787641904</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>31.19505756236916</v>
+        <v>54.69451611507455</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>31.19505756236916</v>
+        <v>62.56979532404821</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>31.19505756236916</v>
+        <v>65.99751824053956</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>31.19505756236916</v>
+        <v>38.05123215520692</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>31.19505756236916</v>
+        <v>55.98050758420041</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>31.19505756236916</v>
+        <v>63.39148496332658</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>31.19505756236916</v>
+        <v>4.782444940378383</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>31.19505756236916</v>
+        <v>38.1568060869113</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>31.19505756236916</v>
+        <v>45.91963535760831</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>31.19505756236916</v>
+        <v>14.9507863973179</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>31.19505756236916</v>
+        <v>28.41413092907024</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>31.19505756236916</v>
+        <v>33.99452673748434</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>31.19505756236916</v>
+        <v>27.86563686824164</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>31.19505756236916</v>
+        <v>34.11108005126223</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>31.19505756236916</v>
+        <v>38.38832666358317</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>31.19505756236916</v>
+        <v>40.90806557110082</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>31.19505756236916</v>
+        <v>48.78041178739139</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>31.19505756236916</v>
+        <v>52.20662792729902</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>31.19505756236916</v>
+        <v>24.26768479440059</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>31.19505756236916</v>
+        <v>42.19126197813878</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>31.19505756236916</v>
+        <v>49.6002251111228</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>31.19505756236916</v>
+        <v>8.702909369149012</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>31.19505756236916</v>
+        <v>42.08222245337268</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>31.19505756236916</v>
+        <v>49.84663671302363</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>31.19505756236916</v>
+        <v>18.86627303233448</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>31.19505756236916</v>
+        <v>32.3341788726589</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>31.19505756236916</v>
+        <v>37.91568774540659</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>31.19505756236916</v>
+        <v>31.78540166704957</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>31.19505756236916</v>
+        <v>38.03471696363695</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>31.19505756236916</v>
+        <v>42.3128428288899</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>31.19505756236916</v>
+        <v>44.83359134873072</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>31.19505756236916</v>
+        <v>52.70903992278684</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>31.19505756236916</v>
+        <v>56.13580826484386</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>31.19505756236916</v>
+        <v>28.19060879481972</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>31.19505756236916</v>
+        <v>46.12039361883333</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>31.19505756236916</v>
+        <v>53.5302061853038</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>31.19505756236916</v>
+        <v>17.32000801429879</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>31.19505756236916</v>
+        <v>50.70014187098187</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>31.19505756236916</v>
+        <v>58.46542045105903</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>31.19505756236916</v>
+        <v>27.48485867272271</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>31.19505756236916</v>
+        <v>40.9536588514317</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>31.19505756236916</v>
+        <v>46.53594600428065</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>31.19505756236916</v>
+        <v>40.40567327502438</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>31.19505756236916</v>
+        <v>46.65581391659421</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>31.19505756236916</v>
+        <v>50.93460023442381</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>31.19505756236916</v>
+        <v>53.45694462474992</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>31.19505756236916</v>
+        <v>61.33277456280715</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>31.19505756236916</v>
+        <v>64.76023830420721</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>31.19505756236916</v>
+        <v>36.81224087063995</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>31.19505756236916</v>
+        <v>54.74301185555831</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>31.19505756236916</v>
+        <v>62.15371911827597</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>31.19505756236916</v>
+        <v>-0.3590696772715489</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>31.19505756236916</v>
+        <v>33.01259146762462</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>31.19505756236916</v>
+        <v>40.77522166519603</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>31.19505756236916</v>
+        <v>9.808346750284755</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>31.19505756236916</v>
+        <v>23.27005890557771</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>31.19505756236916</v>
+        <v>28.85032139543355</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>31.19505756236916</v>
+        <v>22.72184410050446</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>31.19505756236916</v>
+        <v>28.96614261380583</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>31.19505756236916</v>
+        <v>33.24329026006572</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>31.19505756236916</v>
+        <v>35.76297506667268</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>31.19505756236916</v>
+        <v>43.63450384447097</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>31.19505756236916</v>
+        <v>47.06077456227789</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>31.19505756236916</v>
+        <v>19.12435399444408</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>31.19505756236916</v>
+        <v>37.04590167713596</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>31.19505756236916</v>
+        <v>44.45470157959747</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>31.19505756236916</v>
+        <v>3.564118841352098</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>31.19505756236916</v>
+        <v>36.94073171987398</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>31.19505756236916</v>
+        <v>44.70494692231549</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>31.19505756236916</v>
+        <v>13.7265578618865</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>31.19505756236916</v>
+        <v>27.19283115824069</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>31.19505756236916</v>
+        <v>32.77420675946249</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>31.19505756236916</v>
+        <v>26.6443331717044</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>31.19505756236916</v>
+        <v>32.89250366221123</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>31.19505756236916</v>
+        <v>37.17053061208915</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>31.19505756236916</v>
+        <v>39.69122477459499</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>31.19505756236916</v>
+        <v>47.56585579609285</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>31.19505756236916</v>
+        <v>50.99267875538308</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>31.19505756236916</v>
+        <v>23.05000190990077</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>31.19505756236916</v>
+        <v>40.97775700455</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>31.19505756236916</v>
+        <v>48.38740640268432</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>31.19505756236916</v>
+        <v>12.18010676784516</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>31.19505756236916</v>
+        <v>45.55754037068201</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>31.19505756236916</v>
+        <v>53.32261984524112</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>31.19505756236916</v>
+        <v>22.34403255973328</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>31.19505756236916</v>
+        <v>35.81120014622221</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>31.19505756236916</v>
+        <v>41.39335396998311</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>31.19505756236916</v>
+        <v>35.26349375001772</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>31.19505756236916</v>
+        <v>41.51248954308201</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>31.19505756236916</v>
+        <v>45.79117689154194</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>31.19505756236916</v>
+        <v>48.31346687151111</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>31.19505756236916</v>
+        <v>56.18847921002182</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>31.19505756236916</v>
+        <v>59.61599750989424</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>31.19505756236916</v>
+        <v>31.67052288801236</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>31.19505756236916</v>
+        <v>49.59926407760432</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>31.19505756236916</v>
+        <v>57.00980812646392</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>31.19505756236916</v>
+        <v>4.75981464804309</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>31.19505756236916</v>
+        <v>38.13232263430862</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>31.19505756236916</v>
+        <v>45.89534633978704</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>31.19505756236916</v>
+        <v>14.92794941494267</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>31.19505756236916</v>
+        <v>28.38997846358839</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>31.19505756236916</v>
+        <v>33.97056360355808</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>31.19505756236916</v>
+        <v>27.84193695118816</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>31.19505756236916</v>
+        <v>34.0863662262233</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>31.19505756236916</v>
+        <v>38.36377765376611</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>31.19505756236916</v>
+        <v>40.88349305293607</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>31.19505756236916</v>
+        <v>48.75521962036262</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>31.19505756236916</v>
+        <v>52.18169560519064</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>31.19505756236916</v>
+        <v>24.24466953628055</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>31.19505756236916</v>
+        <v>42.16659439761511</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>31.19505756236916</v>
+        <v>49.57582046372616</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>31.19505756236916</v>
+        <v>8.682535165478868</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>31.19505756236916</v>
+        <v>42.05999490640696</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>31.19505756236916</v>
+        <v>49.82460366084482</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>31.19505756236916</v>
+        <v>18.84569236403925</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>31.19505756236916</v>
+        <v>32.31228257683611</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>31.19505756236916</v>
+        <v>37.89398084631378</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>31.19505756236916</v>
+        <v>31.76395790519499</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>31.19505756236916</v>
+        <v>38.01225917601656</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>31.19505756236916</v>
+        <v>42.29054991676256</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>31.19505756236916</v>
+        <v>44.81127477453359</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>31.19505756236916</v>
+        <v>52.68610362560335</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>31.19505756236916</v>
+        <v>56.1131318550097</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>31.19505756236916</v>
+        <v>28.16984943549258</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>31.19505756236916</v>
+        <v>46.09798176791392</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>31.19505756236916</v>
+        <v>53.50805733424934</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>31.19505756236916</v>
+        <v>17.2979781139783</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>31.19505756236916</v>
+        <v>50.67625859837133</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>31.19505756236916</v>
+        <v>58.44173166082319</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>31.19505756236916</v>
+        <v>27.46262211945864</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>31.19505756236916</v>
+        <v>40.93010663687554</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>31.19505756236916</v>
+        <v>46.51258316379338</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>31.19505756236916</v>
+        <v>40.38257357700346</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>31.19505756236916</v>
+        <v>46.63170016117911</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>31.19505756236916</v>
+        <v>50.91065133124849</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>31.19505756236916</v>
+        <v>53.43297205985098</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>31.19505756236916</v>
+        <v>61.30818225144131</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>31.19505756236916</v>
+        <v>64.73590585813238</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>31.19505756236916</v>
+        <v>36.78982555487428</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>31.19505756236916</v>
+        <v>54.71894400669842</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>31.19505756236916</v>
+        <v>62.12991425900694</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>31.19505756236916</v>
+        <v>9.674602287437239</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>31.19505756236916</v>
+        <v>43.04733719486515</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>31.19505756236916</v>
+        <v>50.80989513488421</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>31.19505756236916</v>
+        <v>19.84332510396044</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>31.19505756236916</v>
+        <v>33.305803661542</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>31.19505756236916</v>
+        <v>38.88599286621437</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>31.19505756236916</v>
+        <v>32.75760553184139</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>31.19505756236916</v>
+        <v>39.00250440085463</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>31.19505756236916</v>
+        <v>43.27958456935417</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>31.19505756236916</v>
+        <v>45.79915554685309</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>31.19505756236916</v>
+        <v>53.67094728217037</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>31.19505756236916</v>
+        <v>57.09711494063302</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>31.19505756236916</v>
+        <v>29.15993776982091</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>31.19505756236916</v>
+        <v>47.08232529035436</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>31.19505756236916</v>
+        <v>54.49108082775982</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>31.19505756236916</v>
+        <v>13.5951396527386</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>31.19505756236916</v>
+        <v>46.97282628455596</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>31.19505756236916</v>
+        <v>54.73696913566712</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>31.19505756236916</v>
+        <v>23.75888482385281</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>31.19505756236916</v>
+        <v>37.22592449695642</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>31.19505756236916</v>
+        <v>42.80722670123717</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>31.19505756236916</v>
+        <v>36.67744321724129</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>31.19505756236916</v>
+        <v>42.92621403489571</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>31.19505756236916</v>
+        <v>47.20417340393035</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>31.19505756236916</v>
+        <v>49.72475394984647</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>31.19505756236916</v>
+        <v>57.59964789919687</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>31.19505756236916</v>
+        <v>61.02636774702867</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>31.19505756236916</v>
+        <v>33.08293446606709</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>31.19505756236916</v>
+        <v>51.01152940133161</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>31.19505756236916</v>
+        <v>58.42113428433223</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>31.19505756236916</v>
+        <v>22.21138747848366</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>31.19505756236916</v>
+        <v>55.58989482913458</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>31.19505756236916</v>
+        <v>63.35490196489789</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>31.19505756236916</v>
+        <v>32.37661953660088</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>31.19505756236916</v>
+        <v>45.84455349206976</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>31.19505756236916</v>
+        <v>51.42663393767478</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>31.19505756236916</v>
+        <v>45.29686384929133</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>31.19505756236916</v>
+        <v>51.54645996030322</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>31.19505756236916</v>
+        <v>55.82507974609919</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>31.19505756236916</v>
+        <v>58.34725616251879</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>31.19505756236916</v>
+        <v>66.22253145724656</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>31.19505756236916</v>
+        <v>69.64994665380871</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>31.19505756236916</v>
+        <v>41.70371552166208</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>31.19505756236916</v>
+        <v>59.63329655732312</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>31.19505756236916</v>
+        <v>67.04379610877541</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>31.19505756236916</v>
+        <v>5.594193566227347</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>31.19505756236916</v>
+        <v>38.96843510807585</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>31.19505756236916</v>
+        <v>46.73127202973845</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>31.19505756236916</v>
+        <v>15.76258691424917</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>31.19505756236916</v>
+        <v>29.22590352912496</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>31.19505756236916</v>
+        <v>34.80630623998562</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>31.19505756236916</v>
+        <v>28.67741751386339</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>31.19505756236916</v>
+        <v>34.92286281125521</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>31.19505756236916</v>
+        <v>39.20011501051741</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>31.19505756236916</v>
+        <v>41.71986563882936</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>31.19505756236916</v>
+        <v>49.59217416358811</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>31.19505756236916</v>
+        <v>53.01841208686804</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>31.19505756236916</v>
+        <v>25.0795501436767</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>31.19505756236916</v>
+        <v>43.00307368902966</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>31.19505756236916</v>
+        <v>50.41205112455228</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>31.19505756236916</v>
+        <v>9.514785487350906</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>31.19505756236916</v>
+        <v>42.89397894070342</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>31.19505756236916</v>
+        <v>50.65840085297648</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>31.19505756236916</v>
+        <v>19.67820106533034</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>31.19505756236916</v>
+        <v>33.14607896799717</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>31.19505756236916</v>
+        <v>38.72759474653472</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>31.19505756236916</v>
+        <v>32.59730981462261</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>31.19505756236916</v>
+        <v>38.84662720831253</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>31.19505756236916</v>
+        <v>43.1247586643224</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>31.19505756236916</v>
+        <v>45.64551889503642</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>31.19505756236916</v>
+        <v>53.52092976416</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>31.19505756236916</v>
+        <v>56.94771989164317</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>31.19505756236916</v>
+        <v>29.00260163788246</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>31.19505756236916</v>
+        <v>46.93233280185532</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>31.19505756236916</v>
+        <v>54.34215967236517</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>31.19505756236916</v>
+        <v>18.13140309913379</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>31.19505756236916</v>
+        <v>51.51141730657744</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>31.19505756236916</v>
+        <v>59.27670354373814</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>31.19505756236916</v>
+        <v>28.29630563968706</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>31.19505756236916</v>
+        <v>41.76507786236621</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>31.19505756236916</v>
+        <v>47.34737192642538</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>31.19505756236916</v>
+        <v>41.21710033149012</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>31.19505756236916</v>
+        <v>47.46724305338958</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>31.19505756236916</v>
+        <v>51.74603496708383</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>31.19505756236916</v>
+        <v>54.26839107134256</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>31.19505756236916</v>
+        <v>62.14418329677315</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>31.19505756236916</v>
+        <v>65.57166882515631</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>31.19505756236916</v>
+        <v>37.62375262737774</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>31.19505756236916</v>
+        <v>55.55446993220679</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>31.19505756236916</v>
+        <v>62.96519150616442</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_4/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_4/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3.480815217066976</v>
+        <v>3.480815217061973</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>36.85405037398701</v>
+        <v>36.85405037403339</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>44.61716667534316</v>
+        <v>44.61716667533042</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>13.6489156002647</v>
+        <v>13.64891560023526</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>27.11126696381453</v>
+        <v>27.11126696381578</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>32.69190039556955</v>
+        <v>32.69190039556716</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>26.56320100049177</v>
+        <v>26.5632010005103</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>32.80780039488403</v>
+        <v>32.80780039488857</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>37.08524171502646</v>
+        <v>37.08524171498144</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>39.60503074227884</v>
+        <v>39.60503074229851</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>47.47691970044266</v>
+        <v>47.47691970041402</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>50.90341369030423</v>
+        <v>50.90341369026626</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>22.96576078208344</v>
+        <v>22.96576078207559</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>40.88811611841928</v>
+        <v>40.88811611842007</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>48.29740419225269</v>
+        <v>48.29740419225689</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>7.404194248779532</v>
+        <v>7.404194248812843</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>40.7823813019543</v>
+        <v>40.78238130195078</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>48.54708268522032</v>
+        <v>48.54708268522941</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>17.5673169599651</v>
+        <v>17.56731695995748</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>31.03422962330481</v>
+        <v>31.03422962328457</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>36.61597621211584</v>
+        <v>36.61597621211254</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>30.4858805091225</v>
+        <v>30.48588050909487</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>36.73435201699991</v>
+        <v>36.73435201699445</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>41.01267267416054</v>
+        <v>41.01267267412223</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>43.53347116695173</v>
+        <v>43.53347116697378</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>51.4084624934458</v>
+        <v>51.40846249342511</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>54.83550874018184</v>
+        <v>54.83550874016046</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>26.89159929110716</v>
+        <v>26.89159929113023</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>44.82016227616387</v>
+        <v>44.8201622761807</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>52.23029986805616</v>
+        <v>52.23029986808982</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>16.02004607249924</v>
+        <v>16.02004607255267</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>49.39905388662751</v>
+        <v>49.399053886644</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>57.16461959019969</v>
+        <v>57.16461959017752</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>26.18465562920747</v>
+        <v>26.18465562918871</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>39.65246261694281</v>
+        <v>39.65246261693201</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>45.23498747571207</v>
+        <v>45.23498747572503</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>39.10490512462687</v>
+        <v>39.10490512466905</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>45.35420196414535</v>
+        <v>45.35420196415308</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>49.63318306154704</v>
+        <v>49.63318306156546</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>52.155577461636</v>
+        <v>52.15557746163657</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>60.03095013193084</v>
+        <v>60.03095013191674</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>63.45869176347574</v>
+        <v>63.45869176345028</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>35.5119843899719</v>
+        <v>35.51198439000316</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>53.44153351462379</v>
+        <v>53.44153351464482</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>60.85256580665376</v>
+        <v>60.85256580665978</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>7.103968892875997</v>
+        <v>7.103968892935001</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>40.47820319461815</v>
+        <v>40.4782031946468</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>48.2407344013366</v>
+        <v>48.24073440130817</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>17.27280148487935</v>
+        <v>17.27280148487515</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>30.73628912430368</v>
+        <v>30.7362891242897</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>36.31645137532885</v>
+        <v>36.31645137536501</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>30.18758845627454</v>
+        <v>30.18758845619132</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>36.43324126308735</v>
+        <v>36.43324126310941</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>40.71029984872646</v>
+        <v>40.71029984874386</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>43.2298265224953</v>
+        <v>43.22982652249462</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>51.10219954508582</v>
+        <v>51.10219954513357</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>54.52826521865668</v>
+        <v>54.52826521868863</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>26.58941147314479</v>
+        <v>26.5894114731623</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>44.51307348756418</v>
+        <v>44.51307348756464</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>51.92175052111284</v>
+        <v>51.92175052108328</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>11.02294098746248</v>
+        <v>11.02294098738915</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>44.4021271722219</v>
+        <v>44.40212717217653</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>52.16624328638252</v>
+        <v>52.16624328633739</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>21.18679575482398</v>
+        <v>21.18679575480647</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>34.65484463988176</v>
+        <v>34.65484463995281</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>40.23611987573375</v>
+        <v>40.2361198757184</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>34.10586085817218</v>
+        <v>34.10586085817332</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>40.35538572041665</v>
+        <v>40.35538572047167</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>44.63332348995576</v>
+        <v>44.63332348997076</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>47.15385983075785</v>
+        <v>47.15385983069908</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>55.02933516856959</v>
+        <v>55.02933516857016</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>58.45595301456288</v>
+        <v>58.45595301461881</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>30.51084308330874</v>
+        <v>30.51084308318892</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>48.44071266746553</v>
+        <v>48.44071266746587</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>55.85023903286449</v>
+        <v>55.8502390327981</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>19.6413123884669</v>
+        <v>19.64131238846269</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>53.02131933517208</v>
+        <v>53.02131933516469</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>60.78629974077037</v>
+        <v>60.78629974077674</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>29.80665418311756</v>
+        <v>29.80665418311369</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>43.27559739721747</v>
+        <v>43.2755973972825</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>48.85765088572114</v>
+        <v>48.85765088568215</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>42.72740529655269</v>
+        <v>42.72740529657861</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>48.97775549573944</v>
+        <v>48.9777554958072</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>53.25635369412092</v>
+        <v>53.25635369415264</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>55.77848586544602</v>
+        <v>55.77848586553787</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>63.65434255659457</v>
+        <v>63.65434255660844</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>67.08165576872844</v>
+        <v>67.08165576878312</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>39.13374790667481</v>
+        <v>39.13374790664071</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>57.06460363455588</v>
+        <v>57.06460363451779</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>64.47502466908421</v>
+        <v>64.47502466905169</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>5.692567791390758</v>
+        <v>5.69256779146022</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>39.06676249457624</v>
+        <v>39.0667624946299</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>46.82919807202396</v>
+        <v>46.82919807204351</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>15.86113484892363</v>
+        <v>15.8611348489035</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>29.32455145268753</v>
+        <v>29.32455145266763</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>34.90460647317312</v>
+        <v>34.90460647316175</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>28.77591754484459</v>
+        <v>28.77591754487153</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>35.02149782016161</v>
+        <v>35.02149782019401</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>39.29845759444825</v>
+        <v>39.29845759451271</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>41.81818064139568</v>
+        <v>41.81818064139034</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>49.69052123375607</v>
+        <v>49.69052123373788</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>53.11652193854766</v>
+        <v>53.1165219385779</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>25.17790536035503</v>
+        <v>25.17790536039175</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>43.10149862285519</v>
+        <v>43.10149862285371</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>50.51005587829175</v>
+        <v>50.51005587827606</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>9.613179833887926</v>
+        <v>9.613179833861665</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>42.99232647503769</v>
+        <v>42.99232647503518</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>50.75634695437125</v>
+        <v>50.75634695438353</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>19.77676918522005</v>
+        <v>19.7767691852512</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>33.24474707609662</v>
+        <v>33.24474707611651</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>38.82591507902035</v>
+        <v>38.82591507903138</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>32.69583006640519</v>
+        <v>32.69583006635915</v>
       </c>
     </row>
     <row r="114">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>43.22312138768328</v>
+        <v>43.22312138766884</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>45.74385402572253</v>
+        <v>45.74385402573208</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>53.61929694040455</v>
+        <v>53.61929694036181</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>57.04584981768292</v>
+        <v>57.04584981767564</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.10097700099507</v>
+        <v>29.10097700096904</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>47.03077786695624</v>
+        <v>47.03077786691634</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>54.44018445601435</v>
+        <v>54.44018445598866</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>18.2314718836532</v>
+        <v>18.23147188363069</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>51.6114392954785</v>
+        <v>51.61143929545349</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>59.37632407337711</v>
+        <v>59.37632407334289</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>28.39654827382552</v>
+        <v>28.3965482738154</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>41.86542050406084</v>
+        <v>41.86542050406277</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>47.44736676889377</v>
+        <v>47.44736676887854</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>41.31729515302359</v>
+        <v>41.31729515298369</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>47.56757286391783</v>
+        <v>47.5675728639184</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>51.84607225830078</v>
+        <v>51.84607225828429</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>54.36840070898054</v>
+        <v>54.36840070900647</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>62.24422497836181</v>
+        <v>62.24422497838034</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>65.67147323034706</v>
+        <v>65.67147323040868</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>37.72380245854222</v>
+        <v>37.72380245849322</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>55.6545894804722</v>
+        <v>55.65458948046981</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>63.06489074460413</v>
+        <v>63.06489074459685</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-0.6698975156511722</v>
+        <v>-0.6698975155770484</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>32.70283440645542</v>
+        <v>32.70283440651659</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>40.46579478031325</v>
+        <v>40.4657947803303</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>9.497869095854668</v>
+        <v>9.497869095801121</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>22.95986384435506</v>
+        <v>22.95986384431743</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>28.54035236665291</v>
+        <v>28.54035236667815</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>22.41181712519383</v>
+        <v>22.41181712515359</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>28.65614098673896</v>
+        <v>28.65614098674203</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>32.93345666263465</v>
+        <v>32.93345666260612</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>35.4533796304394</v>
+        <v>35.45337963046714</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>43.32515260245853</v>
+        <v>43.32515260247695</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>46.75158418401989</v>
+        <v>46.75158418401557</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>18.81461831284869</v>
+        <v>18.81461831286279</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>36.73655407770892</v>
+        <v>36.73655407771074</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>44.14567505100493</v>
+        <v>44.14567505101687</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>3.252950847218841</v>
+        <v>3.252950847255107</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>36.63063460529159</v>
+        <v>36.63063460529546</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>44.39518002815001</v>
+        <v>44.39518002811499</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>13.41573980648459</v>
+        <v>13.41573980647664</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>26.88229578596693</v>
+        <v>26.88229578593601</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>32.46389743469436</v>
+        <v>32.46389743469504</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>26.33396592954367</v>
+        <v>26.33396592956902</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>32.58216184168683</v>
+        <v>32.58216184172764</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>36.86035682756849</v>
+        <v>36.86035682760044</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>39.38128926439154</v>
+        <v>39.38128926436937</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>47.25616456573906</v>
+        <v>47.25616456571132</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>50.68314839602183</v>
+        <v>50.68314839603275</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>22.73992608584413</v>
+        <v>22.73992608584754</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>40.66806940071345</v>
+        <v>40.66806940073334</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>48.07803987122671</v>
+        <v>48.07803987123182</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>11.86953403112025</v>
+        <v>11.8695340311622</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>45.24803856927159</v>
+        <v>45.24803856929546</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>53.01344830500253</v>
+        <v>53.01344830501822</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>22.03380985423738</v>
+        <v>22.03380985419361</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>35.50126017337826</v>
+        <v>35.50126017341293</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>41.08364008135666</v>
+        <v>41.08364008133188</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>34.95372195799794</v>
+        <v>34.95372195800726</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>41.20274321494085</v>
+        <v>41.20274321490174</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>45.48159863014283</v>
+        <v>45.48159863016772</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>48.00412691436546</v>
+        <v>48.00412691433044</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>55.87938356817315</v>
+        <v>55.87938356819168</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>59.3070627755508</v>
+        <v>59.30706277552829</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>31.36104252637645</v>
+        <v>31.36104252635803</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>49.29017199409682</v>
+        <v>49.29017199414002</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>56.70103714952259</v>
+        <v>56.70103714949906</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>7.735528211495676</v>
+        <v>7.735528211508864</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>41.10899281645484</v>
+        <v>41.10899281644939</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>48.87200241761607</v>
+        <v>48.87200241759879</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>17.90379224139386</v>
+        <v>17.90379224139716</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>31.36647170607594</v>
+        <v>31.36647170604809</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>36.94704110583146</v>
+        <v>36.94704110582907</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>30.81837209513085</v>
+        <v>30.81837209512938</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>37.06329681453738</v>
+        <v>37.06329681456739</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>41.34069283005297</v>
+        <v>41.34069283005343</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>43.86033778985032</v>
+        <v>43.86033778987544</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>51.73237451421861</v>
+        <v>51.73237451420451</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>55.15883856637041</v>
+        <v>55.15883856637086</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>27.22081720291933</v>
+        <v>27.22081720292604</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>45.14345677066311</v>
+        <v>45.14345677064753</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>52.55267187699533</v>
+        <v>52.55267187701955</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>11.66024520468753</v>
+        <v>11.66024520470083</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>45.03866167875574</v>
+        <v>45.03866167876495</v>
       </c>
     </row>
     <row r="199">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>21.82353164897009</v>
+        <v>21.8235316490134</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>35.29077237008281</v>
+        <v>35.29077237010077</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>40.87245486437385</v>
+        <v>40.87245486442058</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>34.74238971929472</v>
+        <v>34.74238971929256</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>40.99118651038967</v>
+        <v>40.9911865104115</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>45.26946180515236</v>
+        <v>45.26946180514133</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>47.79011623243846</v>
+        <v>47.7901162324205</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>55.66525529503454</v>
+        <v>55.6652552950143</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>59.09227158283139</v>
+        <v>59.09227158284457</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>31.1479937852047</v>
+        <v>31.14799378523142</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>49.0768409388742</v>
+        <v>49.07684093893286</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>20.27557567574891</v>
+        <v>20.2755756757405</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>53.65481288722904</v>
+        <v>53.65481288722052</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>61.42027183918461</v>
+        <v>61.42027183918427</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>30.44034891365473</v>
+        <v>30.44034891360505</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>43.90848393948889</v>
+        <v>43.908483939489</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>49.49094471193817</v>
+        <v>49.49094471194113</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>43.36089290709836</v>
+        <v>43.36089290710234</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>49.61051501311786</v>
+        <v>49.61051501316197</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>53.88945075554491</v>
+        <v>53.88945075554719</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>56.41170106664927</v>
+        <v>56.41170106664984</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>64.28722147005752</v>
+        <v>64.28722147005251</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>67.7149331445568</v>
+        <v>67.71493314456225</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>39.76785743663814</v>
+        <v>39.76785743668214</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>57.69769071618671</v>
+        <v>57.69769071621684</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>65.10864999393382</v>
+        <v>65.10864999397805</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>10.87268780013565</v>
+        <v>10.87268780018897</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>44.24495877848497</v>
+        <v>44.24495877854045</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>52.0070147864474</v>
+        <v>52.00701478643603</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>21.04090780071172</v>
+        <v>21.04090780070638</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>34.50367760082386</v>
+        <v>34.5036776008217</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>40.08353601662228</v>
+        <v>40.08353601658453</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>33.95516559789795</v>
+        <v>33.95516559786861</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>40.20054937902253</v>
+        <v>40.20054937903993</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>44.47738842266179</v>
+        <v>44.47738842267714</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>46.99659831191016</v>
+        <v>46.99659831194154</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>54.86849412848861</v>
+        <v>54.86849412848088</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>58.29445202683283</v>
+        <v>58.29445202681532</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>30.35709444216209</v>
+        <v>30.35709444215823</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>48.27959241686452</v>
+        <v>48.27959241684326</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>55.68787934414448</v>
+        <v>55.68787934411958</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>14.79716954305391</v>
+        <v>14.79716954303265</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>48.17439214323431</v>
+        <v>48.17439214318816</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>55.93803293975739</v>
+        <v>55.93803293971328</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>24.96041227698802</v>
+        <v>24.96041227688639</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>38.42774308021708</v>
+        <v>38.42774308017854</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>44.00871438074117</v>
+        <v>44.00871438074185</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>37.87894816878443</v>
+        <v>37.87894816876283</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>44.12820379909479</v>
+        <v>44.1282037991455</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>48.40592194062552</v>
+        <v>48.405921940627</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>50.92614132473639</v>
+        <v>50.92614132474537</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>58.80113927585492</v>
+        <v>58.80113927587675</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>62.22764932052817</v>
+        <v>62.22764932055546</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>34.28403585716117</v>
+        <v>34.28403585708159</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>52.21274107351374</v>
+        <v>52.21274107352431</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>59.62187726096059</v>
+        <v>59.6218772609607</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>23.41347955412894</v>
+        <v>23.41347955411166</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>56.7915228093232</v>
+        <v>56.79152280927374</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>64.55602785028694</v>
+        <v>64.556027850231</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>33.57820904399378</v>
+        <v>33.57820904397684</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>47.04643407554616</v>
+        <v>47.04643407554514</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>52.62818358382302</v>
+        <v>52.62818358383109</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>46.49843079470693</v>
+        <v>46.49843079470432</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>52.74851167217801</v>
+        <v>52.74851167219768</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>57.02689020319158</v>
+        <v>57.02689020316839</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>59.5487053603986</v>
+        <v>59.54870536039553</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>67.42408462054792</v>
+        <v>67.42408462055917</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>70.85128997587813</v>
+        <v>70.85128997590201</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>42.90487880931531</v>
+        <v>42.90487880931735</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>60.83457006934933</v>
+        <v>60.83457006936638</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>68.24460087817104</v>
+        <v>68.24460087817172</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>0.8663379323692482</v>
+        <v>0.866337932349353</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>34.23783223872672</v>
+        <v>34.23783223871126</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>42.00003686259677</v>
+        <v>42.00003686258313</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>11.03394886363938</v>
+        <v>11.03394886359402</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>24.49577631247681</v>
+        <v>24.49577631251466</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>30.07567660031808</v>
+        <v>30.07567660030944</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>23.94744890001712</v>
+        <v>23.94744889998142</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>30.19193428495467</v>
+        <v>30.1919342849948</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>34.46878225702156</v>
+        <v>34.46878225700053</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>36.98847926282465</v>
+        <v>36.98847926280692</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>44.8599388319366</v>
+        <v>44.85993883195525</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>48.28591586678786</v>
+        <v>48.28591586676421</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>20.34983325356498</v>
+        <v>20.34983325359022</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>38.27147033630766</v>
+        <v>38.27147033635461</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>45.67979367507522</v>
+        <v>45.67979367510853</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>4.788828477654221</v>
+        <v>4.78882847768844</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>38.16527449554806</v>
+        <v>38.16527449554647</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>45.92906404893475</v>
+        <v>45.92906404889041</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>14.95146207988287</v>
+        <v>14.95146207983581</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>28.41785064685374</v>
+        <v>28.41785064686613</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>33.99886397382377</v>
+        <v>33.99886397383719</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>27.86924005387201</v>
+        <v>27.86924005386678</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>34.1175973958523</v>
+        <v>34.11759739592665</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>38.39532460952719</v>
+        <v>38.39532460955778</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>40.91603102947332</v>
+        <v>40.91603102949685</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>48.79059278397929</v>
+        <v>48.79059278397702</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>52.21712201885796</v>
+        <v>52.21712201880703</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>24.2747832616424</v>
+        <v>24.2747832615992</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>42.20262772789638</v>
+        <v>42.2026277279588</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>49.61180045414326</v>
+        <v>49.61180045413087</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>13.40641089744568</v>
+        <v>13.40641089747388</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>46.78367764074827</v>
+        <v>46.78367764074656</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>54.54833141842008</v>
+        <v>54.5483314183696</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>23.57053137197218</v>
+        <v>23.57053137196615</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>37.03781422578143</v>
+        <v>37.03781422579951</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>42.61960574167588</v>
+        <v>42.61960574171306</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>36.48999526248909</v>
+        <v>36.48999526243372</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>42.73917790214708</v>
+        <v>42.73917790209035</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>47.01756548860195</v>
+        <v>47.01756548859126</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>49.53986770198324</v>
+        <v>49.53986770196198</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>57.41481077809968</v>
+        <v>57.41481077801635</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>60.84203532095412</v>
+        <v>60.84203532090524</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>32.89689880387621</v>
+        <v>32.89689880388008</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>50.82572936003763</v>
+        <v>50.82572936002558</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>58.23579670157531</v>
+        <v>58.23579670155053</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-0.1311144105999063</v>
+        <v>-0.1311144106279869</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>33.24223174229749</v>
+        <v>33.24223174230102</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>41.00524486013083</v>
+        <v>41.00524486016687</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>10.03686929477786</v>
+        <v>10.03686929471715</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>23.49936063803719</v>
+        <v>23.49936063808164</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>29.07993049767529</v>
+        <v>29.07993049765972</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>22.95109178909243</v>
+        <v>22.95109178909107</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>29.19582510394869</v>
+        <v>29.19582510401804</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>33.47322154740269</v>
+        <v>33.47322154742122</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>35.99314810909382</v>
+        <v>35.99314810907165</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>43.86517195313345</v>
+        <v>43.86517195315926</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>47.29162999103599</v>
+        <v>47.29162999100791</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>19.35384247911216</v>
+        <v>19.35384247912387</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>37.27634044696313</v>
+        <v>37.27634044697894</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>44.68553952289292</v>
+        <v>44.6855395229185</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>3.791726080662926</v>
+        <v>3.791726080639165</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>37.17002409633554</v>
+        <v>37.17002409632292</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>44.93462224666396</v>
+        <v>44.93462224667408</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>13.95473209814239</v>
+        <v>13.95473209817195</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>27.42178469367812</v>
+        <v>27.42178469370779</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>33.0034676573263</v>
+        <v>33.00346765734415</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>26.87323275882457</v>
+        <v>26.87323275878353</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>33.12183814121559</v>
+        <v>33.12183814123412</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>37.40011387264863</v>
+        <v>37.40011387261021</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>39.92104996229264</v>
+        <v>39.92104996227673</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>47.79617615189377</v>
+        <v>47.79617615185501</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>51.22318642956182</v>
+        <v>51.22318642952874</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>23.27914249088624</v>
+        <v>23.27914249084907</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>41.20784804382041</v>
+        <v>41.20784804378175</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>48.61789659194997</v>
+        <v>48.61789659186061</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>12.40794315336532</v>
+        <v>12.40794315337885</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>45.78706192975633</v>
+        <v>45.78706192974349</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>53.55252441758083</v>
+        <v>53.55252441757651</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>22.5724360388879</v>
+        <v>22.57243603889131</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>36.04038296346928</v>
+        <v>36.04038296349646</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>41.62284421165523</v>
+        <v>41.62284421168116</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>35.49262266185954</v>
+        <v>35.49262266183578</v>
       </c>
     </row>
     <row r="353">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>46.0209895657039</v>
+        <v>46.02098956570367</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>48.54352151076947</v>
+        <v>48.54352151075844</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>56.4190290501904</v>
+        <v>56.41902905014675</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>59.84673472247849</v>
+        <v>59.8467347224346</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>31.8998928311004</v>
+        <v>31.89989283109608</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>49.82958453362156</v>
+        <v>49.82958453364168</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>57.24052779046795</v>
+        <v>57.2405277904825</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>15.30755343473962</v>
+        <v>15.30755343476292</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>48.68117567191373</v>
+        <v>48.68117567191646</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>56.44351523713866</v>
+        <v>56.44351523716333</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>25.47690735106383</v>
+        <v>25.47690735108452</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>38.9403610011656</v>
+        <v>38.94036100118333</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>44.52040756334216</v>
+        <v>44.52040756334102</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>38.39180011242914</v>
+        <v>38.39180011243312</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>44.63759812800291</v>
+        <v>44.63759812801496</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>48.91457454785601</v>
+        <v>48.91457454785362</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>51.43393668508875</v>
+        <v>51.43393668508193</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>59.30611193406165</v>
+        <v>59.30611193406085</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>62.73213834006597</v>
+        <v>62.732138340072</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>34.79376461707173</v>
+        <v>34.79376461714472</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>52.71718429341027</v>
+        <v>52.71718429343017</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>60.12574088492218</v>
+        <v>60.12574088494833</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>19.22655937794073</v>
+        <v>19.22655937796597</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>52.60513333921497</v>
+        <v>52.60513333922145</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>60.36905773865706</v>
+        <v>60.36905773867821</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>29.39093554365789</v>
+        <v>29.39093554372008</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>42.85895031074213</v>
+        <v>42.85895031072963</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>48.44010979235398</v>
+        <v>48.44010979238683</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>42.31010632340534</v>
+        <v>42.31010632336304</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>48.55977628898339</v>
+        <v>48.55977628897179</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>52.83763183736758</v>
+        <v>52.8376318373719</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>55.35800362448188</v>
+        <v>55.35800362443914</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>63.2332810983909</v>
+        <v>63.2332810983776</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>66.65985966074496</v>
+        <v>66.6598596607046</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>38.71522993278782</v>
+        <v>38.71522993275144</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>56.6448570310055</v>
+        <v>56.6448570310304</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>64.05426287139497</v>
+        <v>64.05426287144374</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>27.84345940669814</v>
+        <v>27.843459406726</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>61.22285405021503</v>
+        <v>61.22285405023584</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>68.98764272091981</v>
+        <v>68.98764272093322</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>38.00932249531687</v>
+        <v>38.00932249531698</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>51.47823151669516</v>
+        <v>51.47823151664321</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>57.0601692353288</v>
+        <v>57.06016923534119</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>50.93017918590525</v>
+        <v>50.93017918590775</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>57.18067442216093</v>
+        <v>57.18067442215275</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>61.45919038669857</v>
+        <v>61.45919038671823</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>63.98115805104149</v>
+        <v>63.98115805108367</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>71.85681684563386</v>
+        <v>71.85681684561123</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>75.28409073930769</v>
+        <v>75.28409073932053</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>47.33666320662454</v>
+        <v>47.33666320663727</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>65.26727637619743</v>
+        <v>65.2672763762138</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>72.67757687034944</v>
+        <v>72.67757687038218</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-3.92817060322281</v>
+        <v>-3.928170603225311</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>29.44304399721696</v>
+        <v>29.44304399725698</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>37.20524708314738</v>
+        <v>37.2052470831259</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>6.238734464374062</v>
+        <v>6.238734464372925</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>19.70048853213703</v>
+        <v>19.70048853214578</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>25.28039906867812</v>
+        <v>25.28039906869085</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>19.15196408975945</v>
+        <v>19.1519640897649</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>25.39643399159141</v>
+        <v>25.39643399165917</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>29.67329753218181</v>
+        <v>29.6732975322499</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>32.19293722116507</v>
+        <v>32.19293722117871</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>40.06444320090569</v>
+        <v>40.06444320093149</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>43.49036712532089</v>
+        <v>43.49036712530406</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>15.55422475777951</v>
+        <v>15.55422475777758</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>33.47588813852363</v>
+        <v>33.47588813857456</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>40.884172137565</v>
+        <v>40.88417213763958</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-0.007157037048699522</v>
+        <v>-0.007157037037558212</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>33.36900919386383</v>
+        <v>33.36900919383518</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>41.13279721497602</v>
+        <v>41.1327972149758</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>10.15477073326602</v>
+        <v>10.15477073325738</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>23.62108583646673</v>
+        <v>23.62108583646628</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>29.20210942822771</v>
+        <v>29.20210942825591</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>23.07227820727908</v>
+        <v>23.07227820717972</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>29.32061999481189</v>
+        <v>29.32061999479063</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>33.5983627928762</v>
+        <v>33.59836279280947</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>36.11901195158148</v>
+        <v>36.11901195156329</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>43.99362007826952</v>
+        <v>43.99362007824462</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>47.42009618911473</v>
+        <v>47.42009618909188</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>19.47769780682702</v>
+        <v>19.47769780675483</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>37.40556844152925</v>
+        <v>37.40556844151459</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>44.8147018787013</v>
+        <v>44.81470187876508</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>8.610679042677504</v>
+        <v>8.610679042706607</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>41.98766601596063</v>
+        <v>41.98766601597859</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>49.75231826198902</v>
+        <v>49.75231826197367</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>18.77409372153298</v>
+        <v>18.77409372155242</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>32.24130312130197</v>
+        <v>32.24130312126911</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>37.82310490567298</v>
+        <v>37.82310490565467</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>31.69328709060542</v>
+        <v>31.69328709056666</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>37.94245418252856</v>
+        <v>37.94245418246933</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>42.22085735722126</v>
+        <v>42.22085735715874</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>44.74310223985211</v>
+        <v>44.74310223988394</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>52.6180917012845</v>
+        <v>52.61809170129666</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>56.04526314107935</v>
+        <v>56.04526314108719</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>28.10006701476973</v>
+        <v>28.10006701474961</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>46.02892374974388</v>
+        <v>46.02892374976753</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>53.43895179685697</v>
+        <v>53.43895179683014</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>5.566207553642954</v>
+        <v>5.566207553644659</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>38.9392303807779</v>
+        <v>38.93923038076483</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>46.70139179765218</v>
+        <v>46.70139179764092</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>15.73399813912593</v>
+        <v>15.73399813911342</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>29.19689443526934</v>
+        <v>29.19689443528048</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>34.77675090182609</v>
+        <v>34.77675090186145</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>28.64832133583403</v>
+        <v>28.6483213358114</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>34.89362714793234</v>
+        <v>34.89362714791949</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>39.17043456632851</v>
+        <v>39.17043456638365</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>41.68992380412956</v>
+        <v>41.68992380413104</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>49.56203314230302</v>
+        <v>49.56203314229165</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>52.98794588224612</v>
+        <v>52.98794588223066</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>25.05016305036943</v>
+        <v>25.05016305043799</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>42.97304999943131</v>
+        <v>42.97304999944961</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>50.38133211882612</v>
+        <v>50.38133211888024</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>9.489678776755142</v>
+        <v>9.48967877677299</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>42.86765341171647</v>
+        <v>42.86765341174751</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>50.63139969057127</v>
+        <v>50.63139969057946</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>19.65249200339147</v>
+        <v>19.6524920033734</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>33.11994945167922</v>
+        <v>33.11994945169968</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>38.70091887644699</v>
+        <v>38.70091887650179</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>32.57109335457793</v>
+        <v>32.57109335456246</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>38.82027113847235</v>
+        <v>38.8202711385251</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>43.09795771970474</v>
+        <v>43.09795771971451</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>45.6184564653993</v>
+        <v>45.61845646542079</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>53.49366803516207</v>
+        <v>53.4936680351731</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>56.92013294095673</v>
+        <v>56.92013294094764</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>28.97609402360334</v>
+        <v>28.97609402362903</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>46.90518837595917</v>
+        <v>46.90518837602534</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>54.31431984028896</v>
+        <v>54.3143198403076</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>18.10752431751419</v>
+        <v>18.10752431755171</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>51.48631970216266</v>
+        <v>51.48631970217278</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>59.25093025482764</v>
+        <v>59.25093025482775</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>28.27182446297982</v>
+        <v>28.27182446298914</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>41.74017622649936</v>
+        <v>41.74017622651027</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>47.32192388839988</v>
+        <v>47.32192388841807</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>41.1921117659023</v>
+        <v>41.19211176593288</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>47.44211487416388</v>
+        <v>47.44211487421651</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>51.72046187087975</v>
+        <v>51.72046187093954</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>54.24255633529665</v>
+        <v>54.24255633533781</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>62.1181492460934</v>
+        <v>62.11814924614706</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>65.54530950944516</v>
+        <v>65.54530950946176</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>37.59847273462461</v>
+        <v>37.59847273463723</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>55.5285532161362</v>
+        <v>55.5285532161304</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>62.93857932613665</v>
+        <v>62.93857932612494</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>-4.077221943499893</v>
+        <v>-4.07722194349239</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>29.29503968183715</v>
+        <v>29.29503968193049</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>37.05723347122083</v>
+        <v>37.05723347120923</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>6.090180719699475</v>
+        <v>6.090180719671622</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>19.55233142911439</v>
+        <v>19.55233142908608</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>25.13218162557214</v>
+        <v>25.13218162559261</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>19.00387246768551</v>
+        <v>19.00387246772314</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>25.24851238611691</v>
+        <v>25.24851238616409</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.52530448717792</v>
+        <v>29.52530448717098</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>32.04511770201466</v>
+        <v>32.0451177020249</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>39.91689870409996</v>
+        <v>39.91689870409155</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>43.34278437229435</v>
+        <v>43.34278437232174</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>15.40614536789192</v>
+        <v>15.40614536788806</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>33.32829378511568</v>
+        <v>33.32829378507532</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>40.73655856891222</v>
+        <v>40.73655856893268</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-0.1581557824636945</v>
+        <v>-0.1581557824880235</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>33.21905760923815</v>
+        <v>33.2190576092394</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>40.98283630628194</v>
+        <v>40.98283630630036</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>10.00426929132485</v>
+        <v>10.00426929133417</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>23.47098113078508</v>
+        <v>23.47098113080236</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>29.05194433551119</v>
+        <v>29.05194433552825</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>22.92223897753186</v>
+        <v>22.92223897753095</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>29.17075085221634</v>
+        <v>29.17075085223885</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>33.44842216337216</v>
+        <v>33.4484221633883</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>35.96924493174529</v>
+        <v>35.96924493178315</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>43.84412815897977</v>
+        <v>43.84412815901365</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>47.27056601121708</v>
+        <v>47.27056601119696</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>19.3276709424986</v>
+        <v>19.32767094245074</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>37.25602674697294</v>
+        <v>37.25602674700147</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>44.66514090608237</v>
+        <v>44.66514090608328</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>8.461616386367524</v>
+        <v>8.461616386395264</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>41.83965058614163</v>
+        <v>41.83965058620495</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>49.60429351973849</v>
+        <v>49.60429351981421</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>18.6255284960445</v>
+        <v>18.62552849596753</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>32.09313469837107</v>
+        <v>32.09313469837232</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>37.67487610301319</v>
+        <v>37.67487610302638</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>31.54518422812114</v>
+        <v>31.54518422810216</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>37.79452146688371</v>
+        <v>37.79452146692304</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>42.07285316051824</v>
+        <v>42.07285316055018</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>44.59527163951489</v>
+        <v>44.59527163951921</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>52.4705362247395</v>
+        <v>52.47053622474121</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>55.89766940959183</v>
+        <v>55.89766940961763</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>27.9519764363138</v>
+        <v>27.9519764363362</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>45.88131840608688</v>
+        <v>45.88131840609108</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>53.29132718096756</v>
+        <v>53.29132718095198</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-8.773451303104224</v>
+        <v>-8.773451303065684</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>24.59746000081444</v>
+        <v>24.59746000081842</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>32.35934482484211</v>
+        <v>32.35934482483825</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>1.393195993721207</v>
+        <v>1.393195993733599</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>14.85464069054947</v>
+        <v>14.85464069053026</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>20.43424347856129</v>
+        <v>20.43424347854378</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>14.30613124250161</v>
+        <v>14.30613124251855</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>20.55032687550707</v>
+        <v>20.55032687551116</v>
       </c>
     </row>
     <row r="549">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>27.34677148455856</v>
+        <v>27.3467714845996</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>35.21824789909525</v>
+        <v>35.21824789908081</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>38.64402973403335</v>
+        <v>38.64402973407053</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>10.70864905271961</v>
+        <v>10.70864905276088</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>28.62992793099355</v>
+        <v>28.6299279310048</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>36.03787578773122</v>
+        <v>36.03787578776078</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-4.853129937445345</v>
+        <v>-4.853129937425905</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>28.52273298009439</v>
+        <v>28.52273298009791</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>36.28620266452972</v>
+        <v>36.28620266451074</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>5.308540028969247</v>
+        <v>5.308540028979024</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>18.7745457061649</v>
+        <v>18.77454570615785</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>24.35526147320698</v>
+        <v>24.35526147318902</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>18.22575312112716</v>
+        <v>18.22575312115842</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>24.47382058178815</v>
+        <v>24.47382058178962</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>28.751291481967</v>
+        <v>28.75129148194642</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>31.27215386260573</v>
+        <v>31.27215386260676</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>39.14673240341838</v>
+        <v>39.14673240337609</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>42.57306641050039</v>
+        <v>42.57306641045309</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>14.63142982533455</v>
+        <v>14.63142982532614</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>32.5589158733857</v>
+        <v>32.55891587338854</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>39.96771309909005</v>
+        <v>39.9677130990556</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>3.766602085476308</v>
+        <v>3.76660208552974</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>37.14328579718656</v>
+        <v>37.14328579717474</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>44.90761970168879</v>
+        <v>44.9076197016681</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>13.92975902764047</v>
+        <v>13.92975902764718</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>27.39665905278756</v>
+        <v>27.39665905278574</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>32.97815299871641</v>
+        <v>32.97815299872744</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>26.84865812577257</v>
+        <v>26.84865812577848</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>33.09755093656386</v>
+        <v>33.09755093656784</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>37.37568219953906</v>
+        <v>37.37568219955475</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>39.89814019068186</v>
+        <v>39.89814019068504</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>47.7731000821731</v>
+        <v>47.7731000821623</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>51.2001294056893</v>
+        <v>51.20012940568407</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>23.25569499692816</v>
+        <v>23.25569499690837</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>41.18416719016048</v>
+        <v>41.18416719014672</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>48.59385900406326</v>
+        <v>48.59385900406963</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>1.609813341964042</v>
+        <v>1.609813341922774</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>34.98311199581488</v>
+        <v>34.98311199580021</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>42.7461961112439</v>
+        <v>42.74619611118536</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>11.77775528758698</v>
+        <v>11.77775528759904</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>25.2401013364138</v>
+        <v>25.24010133643461</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>30.82070497461055</v>
+        <v>30.82070497461316</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>24.69208809315333</v>
+        <v>24.69208809316652</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>30.93666193604807</v>
+        <v>30.93666193604284</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>35.21407782468069</v>
+        <v>35.21407782467557</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>37.73393109196186</v>
+        <v>37.73393109193879</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>45.60583493300138</v>
+        <v>45.60583493306174</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>49.03228113644607</v>
+        <v>49.03228113644346</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>21.09469035535304</v>
+        <v>21.09469035533382</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>39.01707082611645</v>
+        <v>39.01707082611406</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>46.42631397496442</v>
+        <v>46.42631397496089</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>5.531074726654339</v>
+        <v>5.531074726662411</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>38.9093252610792</v>
+        <v>38.90932526112115</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>46.67399443950958</v>
+        <v>46.67399443953607</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>15.69403886655394</v>
+        <v>15.69403886654166</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.1609461918097</v>
+        <v>29.16094619179935</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>34.74266296633542</v>
+        <v>34.74266296632325</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.61264975863608</v>
+        <v>28.61264975859322</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>34.86109569191754</v>
+        <v>34.86109569191242</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>39.13939089840792</v>
+        <v>39.13939089842134</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>41.66025369605578</v>
+        <v>41.66025369601439</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>49.5352598957044</v>
+        <v>49.53525989561106</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>52.96225834908435</v>
+        <v>52.96225834910379</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>25.01841111821867</v>
+        <v>25.01841111820877</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>42.9469992052955</v>
+        <v>42.94699920522956</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>50.35709185585816</v>
+        <v>50.35709185581155</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>14.14790137829621</v>
+        <v>14.14790137831156</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>47.52697270033505</v>
+        <v>47.52697270032948</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>55.29250619180883</v>
+        <v>55.29250619181815</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>24.3123524204523</v>
+        <v>24.31235242048845</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>37.78015409390767</v>
+        <v>37.78015409389482</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>43.36264913217556</v>
+        <v>43.3626491321742</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>37.2326493115693</v>
+        <v>37.23264931158374</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>43.4819205971576</v>
+        <v>43.48192059709939</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>47.76087623858021</v>
+        <v>47.76087623850904</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>50.28333491909453</v>
+        <v>50.28333491907441</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>58.15872247455653</v>
+        <v>58.15872247457835</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>61.58641631022218</v>
+        <v>61.58641631019466</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>33.63977110508236</v>
+        <v>33.63977110511169</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>51.5693453569161</v>
+        <v>51.5693453569767</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>58.98033269999794</v>
+        <v>58.98033270003796</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>4.859331787846401</v>
+        <v>4.85933178786641</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>38.23202039030005</v>
+        <v>38.2320203902739</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>45.99432195818113</v>
+        <v>45.99432195811997</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>15.02726488219562</v>
+        <v>15.02726488212082</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>28.48992828653437</v>
+        <v>28.48992828649048</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>34.06991053577102</v>
+        <v>34.06991053578193</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>27.94134034385164</v>
+        <v>27.94134034383868</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>34.18646114682636</v>
+        <v>34.18646114685831</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>38.46337795646335</v>
+        <v>38.46337795650621</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>40.9828564290124</v>
+        <v>40.98285642898875</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>48.85484042202475</v>
+        <v>48.85484042202668</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>52.28078606217414</v>
+        <v>52.28078606215061</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>24.3432734843208</v>
+        <v>24.34327348425521</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>42.2659909777897</v>
+        <v>42.26599097774479</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>49.6743997008455</v>
+        <v>49.67439970078649</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>8.778331374756277</v>
+        <v>8.778331374793225</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>42.15597169631113</v>
+        <v>42.15597169624007</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>49.91985816630952</v>
+        <v>49.9198581662487</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>18.94128689709524</v>
+        <v>18.94128689712207</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>32.40851139160876</v>
+        <v>32.40851139164525</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>37.9896066448695</v>
+        <v>37.98960664490122</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>31.85964029336688</v>
+        <v>31.85964029329799</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>38.1086330201488</v>
+        <v>38.10863302019587</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>42.38642903651751</v>
+        <v>42.38642903649193</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>44.90691709500143</v>
+        <v>44.90691709501598</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>52.78200329065206</v>
+        <v>52.7820032907031</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>56.20850110054769</v>
+        <v>56.20850110055088</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>28.26473251351334</v>
+        <v>28.26473251351959</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>46.19365734393924</v>
+        <v>46.19365734390411</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>53.60291544595091</v>
+        <v>53.6029154459018</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>17.39649673199781</v>
+        <v>17.39649673198429</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>50.7749578196771</v>
+        <v>50.77495781966846</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>58.5397085497091</v>
+        <v>58.53970854966272</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>27.5609392335671</v>
+        <v>27.56093923355914</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>41.02905805350966</v>
+        <v>41.02905805350045</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>46.61093153060338</v>
+        <v>46.61093153065704</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>40.48097858878717</v>
+        <v>40.48097858873612</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>46.7307966465809</v>
+        <v>46.73079664660466</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>51.00925306659272</v>
+        <v>51.00925306661262</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>53.53133686060815</v>
+        <v>53.53133686058507</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>61.40680441134285</v>
+        <v>61.40680441130954</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>64.83399757611258</v>
+        <v>64.83399757609223</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>36.88743113498143</v>
+        <v>36.88743113501667</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>54.81734209948391</v>
+        <v>54.81734209948971</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>62.22749483879127</v>
+        <v>62.22749483878877</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>10.76592688508597</v>
+        <v>10.76592688512633</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>44.14047599546134</v>
+        <v>44.14047599546328</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>51.90368154991407</v>
+        <v>51.90368154992521</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>20.93500779043953</v>
+        <v>20.93500779043566</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>34.39830397262622</v>
+        <v>34.3983039726152</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>39.97902159306344</v>
+        <v>39.97902159304115</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>33.85007908629362</v>
+        <v>33.85007908621552</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>40.09541771646641</v>
+        <v>40.09541771647733</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>44.3729304561339</v>
+        <v>44.3729304561555</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>46.89257743394697</v>
+        <v>46.89257743397312</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>54.76488741282381</v>
+        <v>54.76488741279198</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>58.19141362204326</v>
+        <v>58.19141362203223</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>30.25239116426465</v>
+        <v>30.25239116424623</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>48.17581055101928</v>
+        <v>48.17581055101257</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>55.58522214081668</v>
+        <v>55.58522214083158</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>14.68768931123307</v>
+        <v>14.68768931123364</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>48.0671903716873</v>
+        <v>48.06719037161045</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>55.83198097485402</v>
+        <v>55.8319809748065</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>24.85179232618455</v>
+        <v>24.85179232618682</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>38.31964985146422</v>
+        <v>38.31964985143432</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>43.90148058114428</v>
+        <v>43.90148058116043</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>37.77114184571761</v>
+        <v>37.77114184575944</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>44.02035262315397</v>
+        <v>44.02035262317773</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>48.29874465363278</v>
+        <v>48.29874465366427</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>50.81940120852201</v>
+        <v>50.81940120862012</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>58.69481359324007</v>
+        <v>58.69481359319084</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>62.12189204366942</v>
+        <v>62.1218920436385</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>34.17661306230812</v>
+        <v>34.17661306230414</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>52.10624017158048</v>
+        <v>52.10624017158275</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>59.51650121758158</v>
+        <v>59.51650121756407</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>23.30349682930412</v>
+        <v>23.3034968293347</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>56.6838186390053</v>
+        <v>56.68381863902485</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>64.44947358200389</v>
+        <v>64.44947358201071</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>33.46908672436589</v>
+        <v>33.46908672437806</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>46.93783856783173</v>
+        <v>46.93783856783355</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>52.52044758859498</v>
+        <v>52.52044758860112</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>46.39012220858118</v>
+        <v>46.39012220852808</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>52.64015831384623</v>
+        <v>52.64015831384384</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>56.91921080391481</v>
+        <v>56.91921080392584</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>59.44146331171672</v>
+        <v>59.44146331176049</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>67.31725704454325</v>
+        <v>67.31725704448129</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>70.74503088689929</v>
+        <v>70.74503088691031</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>42.7969539392349</v>
+        <v>42.79695393922319</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>60.727567188834</v>
+        <v>60.72756718882172</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>68.13872295360878</v>
+        <v>68.13872295362162</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>6.020841082078533</v>
+        <v>6.020841082086832</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>39.3935543123105</v>
+        <v>39.39355431238531</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>47.15657673230604</v>
+        <v>47.15657673228648</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>16.18908949816219</v>
+        <v>16.18908949817424</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>29.65126278940718</v>
+        <v>29.65126278943117</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>35.23184851506167</v>
+        <v>35.23184851508395</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.10320747112522</v>
+        <v>29.10320747112488</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>35.34774864740476</v>
+        <v>35.34774864743761</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>39.62516063420983</v>
+        <v>39.62516063423382</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>42.14484353359606</v>
+        <v>42.14484353356241</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>50.01663911213009</v>
+        <v>50.01663911210485</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>53.44311440900381</v>
+        <v>53.4431144090253</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>25.50588256612482</v>
+        <v>25.50588256614756</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>43.42796439295401</v>
+        <v>43.42796439293969</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>50.83719759583087</v>
+        <v>50.83719759588931</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>9.943849639981096</v>
+        <v>9.943849639898446</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>43.32151463909466</v>
+        <v>43.32151463900166</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>51.0861220956821</v>
+        <v>51.08612209565311</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>20.10712048092356</v>
+        <v>20.1071204808708</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>33.57385494423934</v>
+        <v>33.5738549442365</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>39.1555537845318</v>
+        <v>39.15555378458114</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>33.02551649229511</v>
+        <v>33.02551649226612</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>39.2739296697313</v>
+        <v>39.27392966978405</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>43.5522209558159</v>
+        <v>43.5522209558815</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>46.07291332185051</v>
+        <v>46.07291332182868</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>53.94781118843574</v>
+        <v>53.94781118845256</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>57.37483872506951</v>
+        <v>57.3748387250354</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.4313505312729</v>
+        <v>29.43135053122981</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>47.35963984020455</v>
+        <v>47.35963984024673</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>54.76972252952046</v>
+        <v>54.76972252957003</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>18.55919809321122</v>
+        <v>18.55919809324124</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>51.93768383312252</v>
+        <v>51.93768383310899</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>59.70315560354507</v>
+        <v>59.70315560348197</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>28.72395573865461</v>
+        <v>28.72395573861743</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>42.19158450601097</v>
+        <v>42.19158450605462</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>47.7740616092116</v>
+        <v>47.77406160927174</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>41.64403766607452</v>
+        <v>41.6440376660278</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>47.89327615678306</v>
+        <v>47.8932761568075</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>52.17222787641904</v>
+        <v>52.17222787641177</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>54.69451611507455</v>
+        <v>54.69451611510502</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>62.56979532404821</v>
+        <v>62.56979532405458</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>65.99751824053956</v>
+        <v>65.99751824054457</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>38.05123215520692</v>
+        <v>38.05123215519646</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>55.98050758420041</v>
+        <v>55.98050758420086</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>63.39148496332658</v>
+        <v>63.39148496333863</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>4.782444940378383</v>
+        <v>4.782444940410215</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>38.1568060869113</v>
+        <v>38.1568060869013</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>45.91963535760831</v>
+        <v>45.91963535760968</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>14.9507863973179</v>
+        <v>14.95078639730937</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>28.41413092907024</v>
+        <v>28.41413092902147</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>33.99452673748434</v>
+        <v>33.99452673748638</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>27.86563686824164</v>
+        <v>27.86563686823447</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>34.11108005126223</v>
+        <v>34.11108005130282</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>38.38832666358317</v>
+        <v>38.3883266635527</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>40.90806557110082</v>
+        <v>40.90806557108127</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>48.78041178739139</v>
+        <v>48.78041178734023</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>52.20662792729902</v>
+        <v>52.2066279273254</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>24.26768479440059</v>
+        <v>24.26768479439923</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>42.19126197813878</v>
+        <v>42.19126197815424</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>49.6002251111228</v>
+        <v>49.60022511111961</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>8.702909369149012</v>
+        <v>8.702909369187779</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>42.08222245337268</v>
+        <v>42.08222245338121</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>49.84663671302363</v>
+        <v>49.8466367130259</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>18.86627303233448</v>
+        <v>18.86627303224182</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>32.3341788726589</v>
+        <v>32.33417887265173</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>37.91568774540659</v>
+        <v>37.91568774544979</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>31.78540166704957</v>
+        <v>31.78540166706628</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>38.03471696363695</v>
+        <v>38.03471696370391</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>42.3128428288899</v>
+        <v>42.3128428289821</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>44.83359134873072</v>
+        <v>44.83359134862397</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>52.70903992278684</v>
+        <v>52.70903992274125</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>56.13580826484386</v>
+        <v>56.13580826480145</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>28.19060879481972</v>
+        <v>28.19060879468648</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>46.12039361883333</v>
+        <v>46.12039361883777</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>53.5302061853038</v>
+        <v>53.53020618528834</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>17.32000801429879</v>
+        <v>17.32000801427287</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>50.70014187098187</v>
+        <v>50.70014187095788</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>58.46542045105903</v>
+        <v>58.46542045105085</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>27.48485867272271</v>
+        <v>27.48485867272942</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>40.9536588514317</v>
+        <v>40.95365885145171</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>46.53594600428065</v>
+        <v>46.53594600436193</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>40.40567327502438</v>
+        <v>40.40567327500983</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>46.65581391659421</v>
+        <v>46.65581391661661</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>50.93460023442381</v>
+        <v>50.93460023447599</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>53.45694462474992</v>
+        <v>53.45694462479608</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>61.33277456280715</v>
+        <v>61.33277456282249</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>64.76023830420721</v>
+        <v>64.76023830424347</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>36.81224087063995</v>
+        <v>36.81224087059857</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>54.74301185555831</v>
+        <v>54.74301185556274</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>62.15371911827597</v>
+        <v>62.15371911828439</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>-0.3590696772715489</v>
+        <v>-0.3590696772923536</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>33.01259146762462</v>
+        <v>33.01259146757596</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>40.77522166519603</v>
+        <v>40.77522166519057</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>9.808346750284755</v>
+        <v>9.808346750352968</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>23.27005890557771</v>
+        <v>23.27005890554577</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>28.85032139543355</v>
+        <v>28.85032139543878</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>22.72184410050446</v>
+        <v>22.72184410049411</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>28.96614261380583</v>
+        <v>28.9661426138322</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>33.24329026006572</v>
+        <v>33.24329026011006</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>35.76297506667268</v>
+        <v>35.76297506674464</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>43.63450384447097</v>
+        <v>43.63450384448245</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>47.06077456227789</v>
+        <v>47.06077456229073</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>19.12435399444408</v>
+        <v>19.12435399442532</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>37.04590167713596</v>
+        <v>37.04590167715324</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>44.45470157959747</v>
+        <v>44.45470157962475</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>3.564118841352098</v>
+        <v>3.56411884130776</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>36.94073171987398</v>
+        <v>36.94073171985283</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>44.70494692231549</v>
+        <v>44.7049469223214</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>13.7265578618865</v>
+        <v>13.72655786190379</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>27.19283115824069</v>
+        <v>27.19283115821295</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>32.77420675946249</v>
+        <v>32.77420675939734</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>26.6443331717044</v>
+        <v>26.64433317172271</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>32.89250366221123</v>
+        <v>32.8925036621936</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>37.17053061208915</v>
+        <v>37.17053061204822</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>39.69122477459499</v>
+        <v>39.69122477460181</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>47.56585579609285</v>
+        <v>47.56585579610615</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>50.99267875538308</v>
+        <v>50.99267875538297</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>23.05000190990077</v>
+        <v>23.05000190989657</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>40.97775700455</v>
+        <v>40.97775700454761</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>48.38740640268432</v>
+        <v>48.38740640268614</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>12.18010676784516</v>
+        <v>12.18010676786528</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>45.55754037068201</v>
+        <v>45.55754037068883</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>53.32261984524112</v>
+        <v>53.32261984525874</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>22.34403255973328</v>
+        <v>22.34403255971952</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>35.81120014622221</v>
+        <v>35.81120014622948</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>41.39335396998311</v>
+        <v>41.39335396999971</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>35.26349375001772</v>
+        <v>35.26349375005057</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>41.51248954308201</v>
+        <v>41.51248954316375</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>45.79117689154194</v>
+        <v>45.79117689156945</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>48.31346687151111</v>
+        <v>48.31346687159785</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>56.18847921002182</v>
+        <v>56.18847921005002</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>59.61599750989424</v>
+        <v>59.61599750991618</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>31.67052288801236</v>
+        <v>31.6705228879579</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>49.59926407760432</v>
+        <v>49.59926407760784</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>57.00980812646392</v>
+        <v>57.00980812643027</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>4.75981464804309</v>
+        <v>4.759814648066737</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>38.13232263430862</v>
+        <v>38.13232263427588</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>45.89534633978704</v>
+        <v>45.89534633978431</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>14.92794941494267</v>
+        <v>14.92794941498678</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>28.38997846358839</v>
+        <v>28.38997846362091</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>33.97056360355808</v>
+        <v>33.97056360360605</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>27.84193695118816</v>
+        <v>27.84193695114428</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>34.0863662262233</v>
+        <v>34.08636622622979</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>38.36377765376611</v>
+        <v>38.36377765378055</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>40.88349305293607</v>
+        <v>40.88349305291482</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>48.75521962036262</v>
+        <v>48.75521962037183</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>52.18169560519064</v>
+        <v>52.18169560518177</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>24.24466953628055</v>
+        <v>24.24466953625088</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>42.16659439761511</v>
+        <v>42.16659439760045</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>49.57582046372616</v>
+        <v>49.57582046375049</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>8.682535165478868</v>
+        <v>8.682535165490236</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>42.05999490640696</v>
+        <v>42.05999490632726</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>49.82460366084482</v>
+        <v>49.82460366079343</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>18.84569236403925</v>
+        <v>18.84569236400833</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>32.31228257683611</v>
+        <v>32.31228257684134</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>37.89398084631378</v>
+        <v>37.89398084631287</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>31.76395790519499</v>
+        <v>31.7639579051876</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>38.01225917601656</v>
+        <v>38.0122591759928</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>42.29054991676256</v>
+        <v>42.29054991677711</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>44.81127477453359</v>
+        <v>44.81127477453745</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>52.68610362560335</v>
+        <v>52.68610362566861</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>56.1131318550097</v>
+        <v>56.1131318549433</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>28.16984943549258</v>
+        <v>28.16984943538594</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>46.09798176791392</v>
+        <v>46.09798176794314</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>53.50805733424934</v>
+        <v>53.50805733421046</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>17.2979781139783</v>
+        <v>17.29797811403697</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>50.67625859837133</v>
+        <v>50.67625859831665</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>58.44173166082319</v>
+        <v>58.44173166082808</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>27.46262211945864</v>
+        <v>27.46262211945876</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>40.93010663687554</v>
+        <v>40.93010663690373</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>46.51258316379338</v>
+        <v>46.51258316380941</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>40.38257357700346</v>
+        <v>40.38257357696082</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>46.63170016117911</v>
+        <v>46.63170016123789</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>50.91065133124849</v>
+        <v>50.91065133126054</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>53.43297205985098</v>
+        <v>53.43297205985849</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>61.30818225144131</v>
+        <v>61.30818225146029</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>64.73590585813238</v>
+        <v>64.7359058581209</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>36.78982555487428</v>
+        <v>36.78982555493045</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>54.71894400669842</v>
+        <v>54.71894400680222</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>62.12991425900694</v>
+        <v>62.12991425900955</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>9.674602287437239</v>
+        <v>9.674602287549448</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>43.04733719486515</v>
+        <v>43.04733719490278</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>50.80989513488421</v>
+        <v>50.80989513497153</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>19.84332510396044</v>
+        <v>19.84332510392372</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>33.305803661542</v>
+        <v>33.30580366158327</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>38.88599286621437</v>
+        <v>38.88599286623779</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>32.75760553184139</v>
+        <v>32.75760553185378</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>39.00250440085463</v>
+        <v>39.00250440087237</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>43.27958456935417</v>
+        <v>43.27958456944012</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>45.79915554685309</v>
+        <v>45.79915554688344</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>53.67094728217037</v>
+        <v>53.6709472821656</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>57.09711494063302</v>
+        <v>57.0971149406403</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>29.15993776982091</v>
+        <v>29.15993776981739</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>47.08232529035436</v>
+        <v>47.08232529036539</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>54.49108082775982</v>
+        <v>54.49108082776652</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>13.5951396527386</v>
+        <v>13.59513965269664</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>46.97282628455596</v>
+        <v>46.97282628457677</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>54.73696913566712</v>
+        <v>54.73696913561938</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>23.75888482385281</v>
+        <v>23.75888482384758</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>37.22592449695642</v>
+        <v>37.22592449696245</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>42.80722670123717</v>
+        <v>42.80722670127673</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>36.67744321724129</v>
+        <v>36.67744321721196</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>42.92621403489571</v>
+        <v>42.92621403488423</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>47.20417340393035</v>
+        <v>47.20417340396696</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>49.72475394984647</v>
+        <v>49.72475394982237</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>57.59964789919687</v>
+        <v>57.59964789922336</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>61.02636774702867</v>
+        <v>61.02636774705073</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>33.08293446606709</v>
+        <v>33.08293446603878</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>51.01152940133161</v>
+        <v>51.01152940127159</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>58.42113428433223</v>
+        <v>58.42113428433257</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>22.21138747848366</v>
+        <v>22.2113874785413</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>55.58989482913458</v>
+        <v>55.58989482914436</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>63.35490196489789</v>
+        <v>63.35490196491972</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>32.37661953660088</v>
+        <v>32.37661953656144</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>45.84455349206976</v>
+        <v>45.84455349207317</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>51.42663393767478</v>
+        <v>51.42663393772867</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>45.29686384929133</v>
+        <v>45.29686384929337</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>51.54645996030322</v>
+        <v>51.54645996031596</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>55.82507974609919</v>
+        <v>55.82507974615967</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>58.34725616251879</v>
+        <v>58.34725616258223</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>66.22253145724656</v>
+        <v>66.22253145721439</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>69.64994665380871</v>
+        <v>69.64994665381451</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>41.70371552166208</v>
+        <v>41.7037155217063</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>59.63329655732312</v>
+        <v>59.63329655736177</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>67.04379610877541</v>
+        <v>67.04379610880179</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>5.594193566227347</v>
+        <v>5.594193566254404</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>38.96843510807585</v>
+        <v>38.96843510808824</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>46.73127202973845</v>
+        <v>46.73127202969866</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>15.76258691424917</v>
+        <v>15.76258691424724</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>29.22590352912496</v>
+        <v>29.22590352915964</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>34.80630623998562</v>
+        <v>34.80630623999869</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>28.67741751386339</v>
+        <v>28.67741751382758</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>34.92286281125521</v>
+        <v>34.92286281122986</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>39.20011501051741</v>
+        <v>39.20011501053048</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>41.71986563882936</v>
+        <v>41.71986563883209</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>49.59217416358811</v>
+        <v>49.592174163539</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>53.01841208686804</v>
+        <v>53.01841208688793</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>25.0795501436767</v>
+        <v>25.07955014369239</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>43.00307368902966</v>
+        <v>43.00307368906263</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>50.41205112455228</v>
+        <v>50.41205112449794</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>9.514785487350906</v>
+        <v>9.514785487434693</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>42.89397894070342</v>
+        <v>42.89397894074799</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>50.65840085297648</v>
+        <v>50.65840085290759</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>19.67820106533034</v>
+        <v>19.67820106529385</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>33.14607896799717</v>
+        <v>33.1460789679625</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>38.72759474653472</v>
+        <v>38.72759474658611</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>32.59730981462261</v>
+        <v>32.59730981460578</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>38.84662720831253</v>
+        <v>38.84662720826341</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>43.1247586643224</v>
+        <v>43.12475866428773</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>45.64551889503642</v>
+        <v>45.64551889504699</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>53.52092976416</v>
+        <v>53.52092976411919</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>56.94771989164317</v>
+        <v>56.94771989170286</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>29.00260163788246</v>
+        <v>29.00260163789861</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>46.93233280185532</v>
+        <v>46.9323328018626</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>54.34215967236517</v>
+        <v>54.34215967233743</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>18.13140309913379</v>
+        <v>18.13140309925259</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>51.51141730657744</v>
+        <v>51.51141730657926</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>59.27670354373814</v>
+        <v>59.27670354374803</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>28.29630563968706</v>
+        <v>28.29630563967967</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>41.76507786236621</v>
+        <v>41.76507786237747</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>47.34737192642538</v>
+        <v>47.34737192645517</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>41.21710033149012</v>
+        <v>41.21710033141565</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>47.46724305338958</v>
+        <v>47.46724305350895</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>51.74603496708383</v>
+        <v>51.74603496705188</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>54.26839107134256</v>
+        <v>54.2683910713188</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>62.14418329677315</v>
+        <v>62.14418329678657</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>65.57166882515631</v>
+        <v>65.5716688251803</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>37.62375262737774</v>
+        <v>37.62375262732306</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>55.55446993220679</v>
+        <v>55.55446993222316</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>62.96519150616442</v>
+        <v>62.96519150612974</v>
       </c>
     </row>
   </sheetData>
